--- a/thresholds/AL/further-mathematics/further-mathematics-thresholds.xlsx
+++ b/thresholds/AL/further-mathematics/further-mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>date</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -512,6 +517,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -545,6 +555,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -578,6 +593,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -611,6 +631,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -644,6 +669,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +707,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -710,6 +745,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -743,6 +783,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -776,6 +821,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -809,6 +859,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -842,6 +897,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -875,6 +935,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -908,6 +973,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -941,6 +1011,11 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -974,539 +1049,624 @@
           <t>June 2023</t>
         </is>
       </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>S1 11,31</t>
+          <t>AX (AX1) 11,21,31,41</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D17" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="E17" t="n">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="F17" t="n">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="G17" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="H17" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>S3 12,32</t>
+          <t>AY (AY1) 12,22,32,42</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D18" t="n">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="E18" t="n">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="F18" t="n">
-        <v>61</v>
+        <v>117</v>
       </c>
       <c r="G18" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="H18" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>S4 12,42</t>
+          <t>AZ (AZ1) 13,23,33,43</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D19" t="n">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="E19" t="n">
-        <v>84</v>
+        <v>147</v>
       </c>
       <c r="F19" t="n">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="G19" t="n">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="H19" t="n">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>S5 13,33</t>
+          <t>BY 22,42,85</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="D20" t="n">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="E20" t="n">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="F20" t="n">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="G20" t="n">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="H20" t="n">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>S6 13,43</t>
+          <t>BZ 23,43,86</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>221</v>
       </c>
       <c r="D21" t="n">
-        <v>94</v>
+        <v>193</v>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>153</v>
       </c>
       <c r="F21" t="n">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="H21" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>June 2023</t>
+          <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AX (AX1) 11,21,31,41</t>
+          <t>CY 22,32,88</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D22" t="n">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E22" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="F22" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G22" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H22" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AX (AX2) 11,31</t>
+          <t>CZ 23,33,89</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D23" t="n">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="E23" t="n">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="F23" t="n">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="G23" t="n">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="H23" t="n">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>AX (AX3) 11,41</t>
+          <t>DT 22,42,94</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D24" t="n">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="E24" t="n">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="F24" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="G24" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AY (AY1) 12,22,32,42</t>
+          <t>DU 23,43,95</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>250</v>
       </c>
       <c r="C25" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D25" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E25" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F25" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G25" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H25" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>AY (AY2) 12,32</t>
+          <t>DX 21,41,94</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="E26" t="n">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="F26" t="n">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="G26" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="H26" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AY (AY3) 12,42</t>
+          <t>DY 22,42,95</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="D27" t="n">
-        <v>94</v>
+        <v>187</v>
       </c>
       <c r="E27" t="n">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="F27" t="n">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="G27" t="n">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="H27" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AZ (AZ1) 13,23,33,43</t>
+          <t>ET 22,32,97</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>250</v>
       </c>
       <c r="C28" t="n">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D28" t="n">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E28" t="n">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F28" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G28" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H28" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AZ (AZ2) 13,33</t>
+          <t>EU 23,33,98</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D29" t="n">
+        <v>189</v>
+      </c>
+      <c r="E29" t="n">
+        <v>152</v>
+      </c>
+      <c r="F29" t="n">
+        <v>129</v>
+      </c>
+      <c r="G29" t="n">
+        <v>107</v>
+      </c>
+      <c r="H29" t="n">
         <v>85</v>
       </c>
-      <c r="E29" t="n">
-        <v>64</v>
-      </c>
-      <c r="F29" t="n">
-        <v>53</v>
-      </c>
-      <c r="G29" t="n">
-        <v>42</v>
-      </c>
-      <c r="H29" t="n">
-        <v>32</v>
-      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AZ (AZ3) 13,43</t>
+          <t>EY 22,32,98</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="D30" t="n">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c r="E30" t="n">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F30" t="n">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="G30" t="n">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="H30" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,85</t>
+          <t>FY (FY1) 12,22,32,42</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>250</v>
       </c>
       <c r="C31" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D31" t="n">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="E31" t="n">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F31" t="n">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G31" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H31" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,86</t>
+          <t>FY (FY2) 22,42,85</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>250</v>
       </c>
       <c r="C32" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D32" t="n">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E32" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F32" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G32" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H32" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>CY 22,32,88</t>
+          <t>FY (FY3) 22,32,88</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1535,143 +1695,168 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,33,89</t>
+          <t>FY (FY4) 22,42,95</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>250</v>
       </c>
       <c r="C34" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D34" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E34" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F34" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G34" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H34" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>DT 22,42,94</t>
+          <t>FY (FY5) 22,32,98</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>250</v>
       </c>
       <c r="C35" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D35" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E35" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F35" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H35" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>DU 23,43,95</t>
+          <t>GT (GT1) 12,22,32,42</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>250</v>
       </c>
       <c r="C36" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D36" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E36" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F36" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G36" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H36" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>DX 21,41,94</t>
+          <t>GT (GT2) 22,42,85</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>250</v>
       </c>
       <c r="C37" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D37" t="n">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="E37" t="n">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="F37" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G37" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H37" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>DY 22,42,95</t>
+          <t>GT (GT3) 22,32,88</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1681,181 +1866,206 @@
         <v>218</v>
       </c>
       <c r="D38" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F38" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G38" t="n">
         <v>102</v>
       </c>
       <c r="H38" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ET 22,32,97</t>
+          <t>GT (GT4) 22,42,94</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>250</v>
       </c>
       <c r="C39" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D39" t="n">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E39" t="n">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F39" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G39" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>EU 23,33,98</t>
+          <t>GT (GT5) 22,32,97</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>250</v>
       </c>
       <c r="C40" t="n">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D40" t="n">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="E40" t="n">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="F40" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G40" t="n">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="H40" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>EY 22,32,98</t>
+          <t>GU (GU1) 13,23,33,43</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>250</v>
       </c>
       <c r="C41" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D41" t="n">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="E41" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F41" t="n">
         <v>123</v>
       </c>
       <c r="G41" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H41" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>FY (FY1) 12,22,32,42</t>
+          <t>GU (GU2) 23,43,86</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>250</v>
       </c>
       <c r="C42" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D42" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="E42" t="n">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F42" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="G42" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H42" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>FY (FY2) 22,42,85</t>
+          <t>GU (GU3) 23,33,89</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>250</v>
       </c>
       <c r="C43" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D43" t="n">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E43" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F43" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G43" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H43" t="n">
         <v>79</v>
@@ -1865,11 +2075,16 @@
           <t>June 2024</t>
         </is>
       </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>FY (FY3) 22,32,88</t>
+          <t>GU (GU4) 23,43,95</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1879,162 +2094,187 @@
         <v>218</v>
       </c>
       <c r="D44" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E44" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F44" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G44" t="n">
         <v>102</v>
       </c>
       <c r="H44" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>FY (FY4) 22,42,95</t>
+          <t>GU (GU5) 23,33,98</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>250</v>
       </c>
       <c r="C45" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D45" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E45" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="F45" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G45" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H45" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>June 2024</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>FY (FY5) 22,32,98</t>
+          <t>AC 14,24,34,44</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>250</v>
       </c>
       <c r="C46" t="n">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="D46" t="n">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="E46" t="n">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F46" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="G46" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="H46" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>FY (FY6) 12,32</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D47" t="n">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="E47" t="n">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="F47" t="n">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="G47" t="n">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="H47" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>FY (FY7) 12,42</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D48" t="n">
+        <v>175</v>
+      </c>
+      <c r="E48" t="n">
+        <v>140</v>
+      </c>
+      <c r="F48" t="n">
+        <v>117</v>
+      </c>
+      <c r="G48" t="n">
         <v>94</v>
       </c>
-      <c r="E48" t="n">
-        <v>73</v>
-      </c>
-      <c r="F48" t="n">
-        <v>59</v>
-      </c>
-      <c r="G48" t="n">
-        <v>46</v>
-      </c>
       <c r="H48" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>GT (GT1) 12,22,32,42</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2044,360 +2284,415 @@
         <v>216</v>
       </c>
       <c r="D49" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E49" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F49" t="n">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G49" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H49" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>GT (GT2) 22,42,85</t>
+          <t>BN 24,44,86</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>250</v>
       </c>
       <c r="C50" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" t="n">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E50" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F50" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G50" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H50" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>GT (GT3) 22,32,88</t>
+          <t>BY 22,42,85</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>250</v>
       </c>
       <c r="C51" t="n">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D51" t="n">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="E51" t="n">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F51" t="n">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G51" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H51" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>GT (GT4) 22,42,94</t>
+          <t>BZ 23,43,86</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>250</v>
       </c>
       <c r="C52" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D52" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E52" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F52" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G52" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H52" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>GT (GT5) 22,32,97</t>
+          <t>CN 24,34,89</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>250</v>
       </c>
       <c r="C53" t="n">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D53" t="n">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="E53" t="n">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F53" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G53" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H53" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>GT (GT6) 12,32</t>
+          <t>CY 22,32,88</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D54" t="n">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="E54" t="n">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="F54" t="n">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="G54" t="n">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="H54" t="n">
-        <v>27</v>
+        <v>74</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>GT (GT7) 12,42</t>
+          <t>CZ 23,33,89</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D55" t="n">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="E55" t="n">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F55" t="n">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="G55" t="n">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="H55" t="n">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>GU (GU1) 13,23,33,43</t>
+          <t>DN 24,44,95</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>250</v>
       </c>
       <c r="C56" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D56" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E56" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F56" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G56" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H56" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>GU (GU2) 23,43,86</t>
+          <t>DT 22,42,94</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>250</v>
       </c>
       <c r="C57" t="n">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="D57" t="n">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="E57" t="n">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="F57" t="n">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G57" t="n">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H57" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>GU (GU3) 23,33,89</t>
+          <t>DU 23,43,95</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>250</v>
       </c>
       <c r="C58" t="n">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D58" t="n">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="E58" t="n">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F58" t="n">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="G58" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H58" t="n">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>GU (GU4) 23,43,95</t>
+          <t>DY 22,42,95</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>250</v>
       </c>
       <c r="C59" t="n">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D59" t="n">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E59" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F59" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="H59" t="n">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>GU (GU5) 23,33,98</t>
+          <t>EN 24,34,98</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2410,390 +2705,450 @@
         <v>189</v>
       </c>
       <c r="E60" t="n">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="F60" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G60" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H60" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>GU (GU6) 13,33</t>
+          <t>ET 22,32,97</t>
         </is>
       </c>
       <c r="B61" t="n">
+        <v>250</v>
+      </c>
+      <c r="C61" t="n">
+        <v>210</v>
+      </c>
+      <c r="D61" t="n">
+        <v>179</v>
+      </c>
+      <c r="E61" t="n">
+        <v>148</v>
+      </c>
+      <c r="F61" t="n">
         <v>125</v>
       </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>85</v>
-      </c>
-      <c r="E61" t="n">
-        <v>64</v>
-      </c>
-      <c r="F61" t="n">
-        <v>53</v>
-      </c>
       <c r="G61" t="n">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="H61" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>GU (GU7) 13,43</t>
+          <t>EU 23,33,98</t>
         </is>
       </c>
       <c r="B62" t="n">
+        <v>250</v>
+      </c>
+      <c r="C62" t="n">
+        <v>214</v>
+      </c>
+      <c r="D62" t="n">
+        <v>181</v>
+      </c>
+      <c r="E62" t="n">
+        <v>148</v>
+      </c>
+      <c r="F62" t="n">
         <v>125</v>
       </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>94</v>
-      </c>
-      <c r="E62" t="n">
-        <v>73</v>
-      </c>
-      <c r="F62" t="n">
-        <v>59</v>
-      </c>
       <c r="G62" t="n">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="H62" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>S1 11,31</t>
+          <t>EY 22,32,98</t>
         </is>
       </c>
       <c r="B63" t="n">
+        <v>250</v>
+      </c>
+      <c r="C63" t="n">
+        <v>210</v>
+      </c>
+      <c r="D63" t="n">
+        <v>179</v>
+      </c>
+      <c r="E63" t="n">
+        <v>148</v>
+      </c>
+      <c r="F63" t="n">
         <v>125</v>
       </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>76</v>
-      </c>
-      <c r="E63" t="n">
-        <v>57</v>
-      </c>
-      <c r="F63" t="n">
-        <v>47</v>
-      </c>
       <c r="G63" t="n">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="H63" t="n">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2025</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>S3 12,32</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D64" t="n">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="E64" t="n">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="F64" t="n">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="H64" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>S4 12,42</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D65" t="n">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="E65" t="n">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="F65" t="n">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="G65" t="n">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="H65" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>S5 13,33</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D66" t="n">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="E66" t="n">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="F66" t="n">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="H66" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>S6 13,43</t>
+          <t>BQ 21,41,85</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D67" t="n">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="E67" t="n">
-        <v>73</v>
+        <v>162</v>
       </c>
       <c r="F67" t="n">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="G67" t="n">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="H67" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>AC 14,24,34,44</t>
+          <t>BR 22,42,86</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>250</v>
       </c>
       <c r="C68" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D68" t="n">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E68" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F68" t="n">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G68" t="n">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H68" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>BY 22,42,85</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>250</v>
       </c>
       <c r="C69" t="n">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D69" t="n">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="E69" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F69" t="n">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="G69" t="n">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H69" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>CQ 21,31,88</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>250</v>
       </c>
       <c r="C70" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D70" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E70" t="n">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F70" t="n">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H70" t="n">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>CR 22,32,89</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>250</v>
       </c>
       <c r="C71" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D71" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E71" t="n">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="F71" t="n">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="H71" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>BN 24,44,86</t>
+          <t>CY 22,32,88</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2803,294 +3158,339 @@
         <v>222</v>
       </c>
       <c r="D72" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E72" t="n">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F72" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G72" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H72" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,85</t>
+          <t>DX 21,41,94</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>250</v>
       </c>
       <c r="C73" t="n">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D73" t="n">
         <v>172</v>
       </c>
       <c r="E73" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F73" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G73" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H73" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,86</t>
+          <t>DY 22,42,95</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>250</v>
       </c>
       <c r="C74" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D74" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E74" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F74" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G74" t="n">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H74" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>CN 24,34,89</t>
+          <t>DZ 23,43,96</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>250</v>
       </c>
       <c r="C75" t="n">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="D75" t="n">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="E75" t="n">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F75" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="G75" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H75" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>CY 22,32,88</t>
+          <t>EX 21,31,97</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>250</v>
       </c>
       <c r="C76" t="n">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D76" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E76" t="n">
         <v>145</v>
       </c>
       <c r="F76" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G76" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H76" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,33,89</t>
+          <t>EY 22,32,98</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>250</v>
       </c>
       <c r="C77" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D77" t="n">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E77" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F77" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="G77" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H77" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>DN 24,44,95</t>
+          <t>EZ 23,33,99</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>250</v>
       </c>
       <c r="C78" t="n">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="D78" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E78" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F78" t="n">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G78" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H78" t="n">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>DT 22,42,94</t>
+          <t>FY 12,22,32,42</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>250</v>
       </c>
       <c r="C79" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D79" t="n">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E79" t="n">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="F79" t="n">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G79" t="n">
+        <v>113</v>
+      </c>
+      <c r="H79" t="n">
         <v>90</v>
       </c>
-      <c r="H79" t="n">
-        <v>68</v>
-      </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>DU 23,43,95</t>
+          <t>FZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>250</v>
       </c>
       <c r="C80" t="n">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D80" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E80" t="n">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="F80" t="n">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G80" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="H80" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>DY 22,42,95</t>
+          <t>HQ 11,21,31,41</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3100,3028 +3500,1466 @@
         <v>205</v>
       </c>
       <c r="D81" t="n">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="E81" t="n">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F81" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G81" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H81" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2023</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>EN 24,34,98</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>250</v>
       </c>
       <c r="C82" t="n">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D82" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E82" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F82" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G82" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H82" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>ET 22,32,97</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>250</v>
       </c>
       <c r="C83" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D83" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E83" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F83" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G83" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H83" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>EU 23,33,98</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>250</v>
       </c>
       <c r="C84" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D84" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E84" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F84" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G84" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H84" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>EY 22,32,98</t>
+          <t>BQ 21,41,85</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>250</v>
       </c>
       <c r="C85" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D85" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E85" t="n">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F85" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G85" t="n">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H85" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>P2 51</t>
+          <t>BR 22,42,86</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D86" t="n">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E86" t="n">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="F86" t="n">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="G86" t="n">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="H86" t="n">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>S1 11,31</t>
+          <t>BY 22,42,85</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="D87" t="n">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="E87" t="n">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="F87" t="n">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="G87" t="n">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="H87" t="n">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>S2 11,41</t>
+          <t>BZ 23,43,86</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="D88" t="n">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="E88" t="n">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="F88" t="n">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="G88" t="n">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="H88" t="n">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>S3 12,32</t>
+          <t>CQ 21,31,88</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D89" t="n">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="E89" t="n">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="F89" t="n">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="G89" t="n">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="H89" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>S4 12,42</t>
+          <t>CR 22,32,89</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D90" t="n">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="E90" t="n">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="F90" t="n">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="G90" t="n">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="H90" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>S5 13,33</t>
+          <t>CY 22,32,88</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="D91" t="n">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="E91" t="n">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="F91" t="n">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="G91" t="n">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="H91" t="n">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>S6 13,43</t>
+          <t>DX 21,41,94</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D92" t="n">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="E92" t="n">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="F92" t="n">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="G92" t="n">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="H92" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>S7 14,34</t>
+          <t>DY 22,42,95</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="D93" t="n">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="E93" t="n">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="F93" t="n">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="G93" t="n">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="H93" t="n">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>S8 14,44</t>
+          <t>DZ 23,43,96</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="D94" t="n">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="E94" t="n">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="F94" t="n">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="G94" t="n">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="H94" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>EX 21,31,97</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>250</v>
       </c>
       <c r="C95" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D95" t="n">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E95" t="n">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F95" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G95" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H95" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>EY 22,32,98</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>250</v>
       </c>
       <c r="C96" t="n">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D96" t="n">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E96" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F96" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G96" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H96" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>FY 12,22,32,42</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>250</v>
       </c>
       <c r="C97" t="n">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="D97" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E97" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F97" t="n">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="G97" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H97" t="n">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>BQ 21,41,85</t>
+          <t>FZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>250</v>
       </c>
       <c r="C98" t="n">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D98" t="n">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E98" t="n">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F98" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G98" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H98" t="n">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>BR 22,42,86</t>
+          <t>HQ 11,21,31,41</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>250</v>
       </c>
       <c r="C99" t="n">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D99" t="n">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E99" t="n">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F99" t="n">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G99" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H99" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,85</t>
+          <t>HR 12,22,32,42</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>250</v>
       </c>
       <c r="C100" t="n">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D100" t="n">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E100" t="n">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F100" t="n">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="G100" t="n">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="H100" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>November 2024</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>further-mathematics</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>CQ 21,31,88</t>
+          <t>AC 14,24,34,44</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>250</v>
       </c>
       <c r="C101" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D101" t="n">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="E101" t="n">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F101" t="n">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G101" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H101" t="n">
         <v>79</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>CR 22,32,89</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>250</v>
       </c>
       <c r="C102" t="n">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="D102" t="n">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="E102" t="n">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F102" t="n">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G102" t="n">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H102" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>CY 22,32,88</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>250</v>
       </c>
       <c r="C103" t="n">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="D103" t="n">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="E103" t="n">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="F103" t="n">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="G103" t="n">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H103" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>DX 21,41,94</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>250</v>
       </c>
       <c r="C104" t="n">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D104" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E104" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F104" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G104" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H104" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>DY 22,42,95</t>
+          <t>BC 24,44,62</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>250</v>
       </c>
       <c r="C105" t="n">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D105" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E105" t="n">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="F105" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="G105" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="H105" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>DZ 23,43,96</t>
+          <t>BQ 21,41,85</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>250</v>
       </c>
       <c r="C106" t="n">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D106" t="n">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="E106" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F106" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G106" t="n">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="H106" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>EX 21,31,97</t>
+          <t>BR 22,42,86</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>250</v>
       </c>
       <c r="C107" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="D107" t="n">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="E107" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="F107" t="n">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G107" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H107" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>EY 22,32,98</t>
+          <t>BX 21,41,84</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>250</v>
       </c>
       <c r="C108" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D108" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E108" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F108" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G108" t="n">
         <v>102</v>
       </c>
       <c r="H108" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>EZ 23,33,99</t>
+          <t>BY 22,42,85</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>250</v>
       </c>
       <c r="C109" t="n">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D109" t="n">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="E109" t="n">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="F109" t="n">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G109" t="n">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="H109" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>FY 12,22,32,42</t>
+          <t>CC 24,34,63</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>250</v>
       </c>
       <c r="C110" t="n">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D110" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E110" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F110" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G110" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H110" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>FZ 13,23,33,43</t>
+          <t>CQ 21,31,88</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>250</v>
       </c>
       <c r="C111" t="n">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D111" t="n">
         <v>177</v>
       </c>
       <c r="E111" t="n">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F111" t="n">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G111" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H111" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>HQ 11,21,31,41</t>
+          <t>CR 22,32,89</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>250</v>
       </c>
       <c r="C112" t="n">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D112" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="E112" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F112" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G112" t="n">
         <v>99</v>
       </c>
       <c r="H112" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>S1 11,31</t>
+          <t>CY 22,32,88</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D113" t="n">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="E113" t="n">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="F113" t="n">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="G113" t="n">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="H113" t="n">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>S2 11,41</t>
+          <t>CZ 23,33,89</t>
         </is>
       </c>
       <c r="B114" t="n">
+        <v>250</v>
+      </c>
+      <c r="C114" t="n">
+        <v>215</v>
+      </c>
+      <c r="D114" t="n">
+        <v>183</v>
+      </c>
+      <c r="E114" t="n">
+        <v>151</v>
+      </c>
+      <c r="F114" t="n">
         <v>125</v>
       </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>88</v>
-      </c>
-      <c r="E114" t="n">
-        <v>74</v>
-      </c>
-      <c r="F114" t="n">
-        <v>61</v>
-      </c>
       <c r="G114" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="H114" t="n">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>S3 12,32</t>
+          <t>DN 24,44,95</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D115" t="n">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="E115" t="n">
-        <v>63</v>
+        <v>151</v>
       </c>
       <c r="F115" t="n">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="G115" t="n">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="H115" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>S4 12,42</t>
+          <t>DX 21,41,94</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="D116" t="n">
-        <v>92</v>
+        <v>178</v>
       </c>
       <c r="E116" t="n">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="F116" t="n">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="G116" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="H116" t="n">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>S5 13,33</t>
+          <t>DY 22,42,95</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="D117" t="n">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="E117" t="n">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="F117" t="n">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="G117" t="n">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="H117" t="n">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>S6 13,43</t>
+          <t>EN 24,34,98</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="D118" t="n">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="E118" t="n">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="F118" t="n">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="G118" t="n">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="H118" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>November 2023</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>EX 21,31,97</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>250</v>
       </c>
       <c r="C119" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D119" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E119" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F119" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G119" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H119" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>EY 22,32,98</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>250</v>
       </c>
       <c r="C120" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D120" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E120" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F120" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G120" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H120" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
+          <t>November 2025</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>EZ 23,33,99</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>250</v>
       </c>
       <c r="C121" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D121" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E121" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F121" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G121" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H121" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>BQ 21,41,85</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>250</v>
-      </c>
-      <c r="C122" t="n">
-        <v>216</v>
-      </c>
-      <c r="D122" t="n">
-        <v>186</v>
-      </c>
-      <c r="E122" t="n">
-        <v>156</v>
-      </c>
-      <c r="F122" t="n">
-        <v>131</v>
-      </c>
-      <c r="G122" t="n">
-        <v>107</v>
-      </c>
-      <c r="H122" t="n">
-        <v>83</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>BR 22,42,86</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>250</v>
-      </c>
-      <c r="C123" t="n">
-        <v>222</v>
-      </c>
-      <c r="D123" t="n">
-        <v>195</v>
-      </c>
-      <c r="E123" t="n">
-        <v>163</v>
-      </c>
-      <c r="F123" t="n">
-        <v>138</v>
-      </c>
-      <c r="G123" t="n">
-        <v>113</v>
-      </c>
-      <c r="H123" t="n">
-        <v>88</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>BY 22,42,85</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>250</v>
-      </c>
-      <c r="C124" t="n">
-        <v>216</v>
-      </c>
-      <c r="D124" t="n">
-        <v>186</v>
-      </c>
-      <c r="E124" t="n">
-        <v>156</v>
-      </c>
-      <c r="F124" t="n">
-        <v>131</v>
-      </c>
-      <c r="G124" t="n">
-        <v>107</v>
-      </c>
-      <c r="H124" t="n">
-        <v>83</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="inlineStr">
-        <is>
-          <t>BZ 23,43,86</t>
-        </is>
-      </c>
-      <c r="B125" t="n">
-        <v>250</v>
-      </c>
-      <c r="C125" t="n">
-        <v>222</v>
-      </c>
-      <c r="D125" t="n">
-        <v>195</v>
-      </c>
-      <c r="E125" t="n">
-        <v>163</v>
-      </c>
-      <c r="F125" t="n">
-        <v>138</v>
-      </c>
-      <c r="G125" t="n">
-        <v>113</v>
-      </c>
-      <c r="H125" t="n">
-        <v>88</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="inlineStr">
-        <is>
-          <t>CQ 21,31,88</t>
-        </is>
-      </c>
-      <c r="B126" t="n">
-        <v>250</v>
-      </c>
-      <c r="C126" t="n">
-        <v>219</v>
-      </c>
-      <c r="D126" t="n">
-        <v>188</v>
-      </c>
-      <c r="E126" t="n">
-        <v>153</v>
-      </c>
-      <c r="F126" t="n">
-        <v>127</v>
-      </c>
-      <c r="G126" t="n">
-        <v>102</v>
-      </c>
-      <c r="H126" t="n">
-        <v>77</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="inlineStr">
-        <is>
-          <t>CR 22,32,89</t>
-        </is>
-      </c>
-      <c r="B127" t="n">
-        <v>250</v>
-      </c>
-      <c r="C127" t="n">
-        <v>219</v>
-      </c>
-      <c r="D127" t="n">
-        <v>188</v>
-      </c>
-      <c r="E127" t="n">
-        <v>153</v>
-      </c>
-      <c r="F127" t="n">
-        <v>127</v>
-      </c>
-      <c r="G127" t="n">
-        <v>102</v>
-      </c>
-      <c r="H127" t="n">
-        <v>77</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="inlineStr">
-        <is>
-          <t>CY 22,32,88</t>
-        </is>
-      </c>
-      <c r="B128" t="n">
-        <v>250</v>
-      </c>
-      <c r="C128" t="n">
-        <v>219</v>
-      </c>
-      <c r="D128" t="n">
-        <v>188</v>
-      </c>
-      <c r="E128" t="n">
-        <v>153</v>
-      </c>
-      <c r="F128" t="n">
-        <v>127</v>
-      </c>
-      <c r="G128" t="n">
-        <v>102</v>
-      </c>
-      <c r="H128" t="n">
-        <v>77</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="inlineStr">
-        <is>
-          <t>DX 21,41,94</t>
-        </is>
-      </c>
-      <c r="B129" t="n">
-        <v>250</v>
-      </c>
-      <c r="C129" t="n">
-        <v>214</v>
-      </c>
-      <c r="D129" t="n">
-        <v>187</v>
-      </c>
-      <c r="E129" t="n">
-        <v>160</v>
-      </c>
-      <c r="F129" t="n">
-        <v>136</v>
-      </c>
-      <c r="G129" t="n">
-        <v>113</v>
-      </c>
-      <c r="H129" t="n">
-        <v>90</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="inlineStr">
-        <is>
-          <t>DY 22,42,95</t>
-        </is>
-      </c>
-      <c r="B130" t="n">
-        <v>250</v>
-      </c>
-      <c r="C130" t="n">
-        <v>220</v>
-      </c>
-      <c r="D130" t="n">
-        <v>191</v>
-      </c>
-      <c r="E130" t="n">
-        <v>162</v>
-      </c>
-      <c r="F130" t="n">
-        <v>138</v>
-      </c>
-      <c r="G130" t="n">
-        <v>115</v>
-      </c>
-      <c r="H130" t="n">
-        <v>92</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="inlineStr">
-        <is>
-          <t>DZ 23,43,96</t>
-        </is>
-      </c>
-      <c r="B131" t="n">
-        <v>250</v>
-      </c>
-      <c r="C131" t="n">
-        <v>214</v>
-      </c>
-      <c r="D131" t="n">
-        <v>187</v>
-      </c>
-      <c r="E131" t="n">
-        <v>160</v>
-      </c>
-      <c r="F131" t="n">
-        <v>136</v>
-      </c>
-      <c r="G131" t="n">
-        <v>113</v>
-      </c>
-      <c r="H131" t="n">
-        <v>90</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="inlineStr">
-        <is>
-          <t>EX 21,31,97</t>
-        </is>
-      </c>
-      <c r="B132" t="n">
-        <v>250</v>
-      </c>
-      <c r="C132" t="n">
-        <v>210</v>
-      </c>
-      <c r="D132" t="n">
-        <v>182</v>
-      </c>
-      <c r="E132" t="n">
-        <v>154</v>
-      </c>
-      <c r="F132" t="n">
-        <v>129</v>
-      </c>
-      <c r="G132" t="n">
-        <v>104</v>
-      </c>
-      <c r="H132" t="n">
-        <v>80</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="inlineStr">
-        <is>
-          <t>EY 22,32,98</t>
-        </is>
-      </c>
-      <c r="B133" t="n">
-        <v>250</v>
-      </c>
-      <c r="C133" t="n">
-        <v>214</v>
-      </c>
-      <c r="D133" t="n">
-        <v>186</v>
-      </c>
-      <c r="E133" t="n">
-        <v>158</v>
-      </c>
-      <c r="F133" t="n">
-        <v>134</v>
-      </c>
-      <c r="G133" t="n">
-        <v>110</v>
-      </c>
-      <c r="H133" t="n">
-        <v>86</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="inlineStr">
-        <is>
-          <t>FY 12,22,32,42</t>
-        </is>
-      </c>
-      <c r="B134" t="n">
-        <v>250</v>
-      </c>
-      <c r="C134" t="n">
-        <v>212</v>
-      </c>
-      <c r="D134" t="n">
-        <v>184</v>
-      </c>
-      <c r="E134" t="n">
-        <v>156</v>
-      </c>
-      <c r="F134" t="n">
-        <v>131</v>
-      </c>
-      <c r="G134" t="n">
-        <v>107</v>
-      </c>
-      <c r="H134" t="n">
-        <v>83</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="inlineStr">
-        <is>
-          <t>FZ 13,23,33,43</t>
-        </is>
-      </c>
-      <c r="B135" t="n">
-        <v>250</v>
-      </c>
-      <c r="C135" t="n">
-        <v>212</v>
-      </c>
-      <c r="D135" t="n">
-        <v>184</v>
-      </c>
-      <c r="E135" t="n">
-        <v>156</v>
-      </c>
-      <c r="F135" t="n">
-        <v>131</v>
-      </c>
-      <c r="G135" t="n">
-        <v>107</v>
-      </c>
-      <c r="H135" t="n">
-        <v>83</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="inlineStr">
-        <is>
-          <t>HQ 11,21,31,41</t>
-        </is>
-      </c>
-      <c r="B136" t="n">
-        <v>250</v>
-      </c>
-      <c r="C136" t="n">
-        <v>212</v>
-      </c>
-      <c r="D136" t="n">
-        <v>184</v>
-      </c>
-      <c r="E136" t="n">
-        <v>156</v>
-      </c>
-      <c r="F136" t="n">
-        <v>131</v>
-      </c>
-      <c r="G136" t="n">
-        <v>107</v>
-      </c>
-      <c r="H136" t="n">
-        <v>83</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="inlineStr">
-        <is>
-          <t>HR 12,22,32,42</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>250</v>
-      </c>
-      <c r="C137" t="n">
-        <v>212</v>
-      </c>
-      <c r="D137" t="n">
-        <v>184</v>
-      </c>
-      <c r="E137" t="n">
-        <v>156</v>
-      </c>
-      <c r="F137" t="n">
-        <v>131</v>
-      </c>
-      <c r="G137" t="n">
-        <v>107</v>
-      </c>
-      <c r="H137" t="n">
-        <v>83</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="inlineStr">
-        <is>
-          <t>S1 11,31</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>125</v>
-      </c>
-      <c r="C138" t="n">
-        <v>0</v>
-      </c>
-      <c r="D138" t="n">
-        <v>74</v>
-      </c>
-      <c r="E138" t="n">
-        <v>57</v>
-      </c>
-      <c r="F138" t="n">
-        <v>47</v>
-      </c>
-      <c r="G138" t="n">
-        <v>37</v>
-      </c>
-      <c r="H138" t="n">
-        <v>27</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>S2 11,41</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>125</v>
-      </c>
-      <c r="C139" t="n">
-        <v>0</v>
-      </c>
-      <c r="D139" t="n">
-        <v>90</v>
-      </c>
-      <c r="E139" t="n">
-        <v>76</v>
-      </c>
-      <c r="F139" t="n">
-        <v>63</v>
-      </c>
-      <c r="G139" t="n">
-        <v>51</v>
-      </c>
-      <c r="H139" t="n">
-        <v>39</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="inlineStr">
-        <is>
-          <t>S3 12,32</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>125</v>
-      </c>
-      <c r="C140" t="n">
-        <v>0</v>
-      </c>
-      <c r="D140" t="n">
-        <v>74</v>
-      </c>
-      <c r="E140" t="n">
-        <v>57</v>
-      </c>
-      <c r="F140" t="n">
-        <v>47</v>
-      </c>
-      <c r="G140" t="n">
-        <v>37</v>
-      </c>
-      <c r="H140" t="n">
-        <v>27</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="inlineStr">
-        <is>
-          <t>S4 12,42</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>125</v>
-      </c>
-      <c r="C141" t="n">
-        <v>0</v>
-      </c>
-      <c r="D141" t="n">
-        <v>90</v>
-      </c>
-      <c r="E141" t="n">
-        <v>76</v>
-      </c>
-      <c r="F141" t="n">
-        <v>63</v>
-      </c>
-      <c r="G141" t="n">
-        <v>51</v>
-      </c>
-      <c r="H141" t="n">
-        <v>39</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="inlineStr">
-        <is>
-          <t>S5 13,33</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>125</v>
-      </c>
-      <c r="C142" t="n">
-        <v>0</v>
-      </c>
-      <c r="D142" t="n">
-        <v>74</v>
-      </c>
-      <c r="E142" t="n">
-        <v>57</v>
-      </c>
-      <c r="F142" t="n">
-        <v>47</v>
-      </c>
-      <c r="G142" t="n">
-        <v>37</v>
-      </c>
-      <c r="H142" t="n">
-        <v>27</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="inlineStr">
-        <is>
-          <t>S6 13,43</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>125</v>
-      </c>
-      <c r="C143" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" t="n">
-        <v>90</v>
-      </c>
-      <c r="E143" t="n">
-        <v>76</v>
-      </c>
-      <c r="F143" t="n">
-        <v>63</v>
-      </c>
-      <c r="G143" t="n">
-        <v>51</v>
-      </c>
-      <c r="H143" t="n">
-        <v>39</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>November 2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="inlineStr">
-        <is>
-          <t>AC 14,24,34,44</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>250</v>
-      </c>
-      <c r="C144" t="n">
-        <v>210</v>
-      </c>
-      <c r="D144" t="n">
-        <v>180</v>
-      </c>
-      <c r="E144" t="n">
-        <v>150</v>
-      </c>
-      <c r="F144" t="n">
-        <v>126</v>
-      </c>
-      <c r="G144" t="n">
-        <v>102</v>
-      </c>
-      <c r="H144" t="n">
-        <v>79</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
           <t>November 2025</t>
         </is>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="inlineStr">
-        <is>
-          <t>AX 11,21,31,41</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>250</v>
-      </c>
-      <c r="C145" t="n">
-        <v>209</v>
-      </c>
-      <c r="D145" t="n">
-        <v>178</v>
-      </c>
-      <c r="E145" t="n">
-        <v>147</v>
-      </c>
-      <c r="F145" t="n">
-        <v>123</v>
-      </c>
-      <c r="G145" t="n">
-        <v>99</v>
-      </c>
-      <c r="H145" t="n">
-        <v>75</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="inlineStr">
-        <is>
-          <t>AY 12,22,32,42</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>250</v>
-      </c>
-      <c r="C146" t="n">
-        <v>203</v>
-      </c>
-      <c r="D146" t="n">
-        <v>175</v>
-      </c>
-      <c r="E146" t="n">
-        <v>147</v>
-      </c>
-      <c r="F146" t="n">
-        <v>123</v>
-      </c>
-      <c r="G146" t="n">
-        <v>99</v>
-      </c>
-      <c r="H146" t="n">
-        <v>76</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="inlineStr">
-        <is>
-          <t>AZ 13,23,33,43</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>250</v>
-      </c>
-      <c r="C147" t="n">
-        <v>209</v>
-      </c>
-      <c r="D147" t="n">
-        <v>178</v>
-      </c>
-      <c r="E147" t="n">
-        <v>147</v>
-      </c>
-      <c r="F147" t="n">
-        <v>123</v>
-      </c>
-      <c r="G147" t="n">
-        <v>99</v>
-      </c>
-      <c r="H147" t="n">
-        <v>75</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="inlineStr">
-        <is>
-          <t>BC 24,44,62</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>250</v>
-      </c>
-      <c r="C148" t="n">
-        <v>225</v>
-      </c>
-      <c r="D148" t="n">
-        <v>200</v>
-      </c>
-      <c r="E148" t="n">
-        <v>169</v>
-      </c>
-      <c r="F148" t="n">
-        <v>142</v>
-      </c>
-      <c r="G148" t="n">
-        <v>115</v>
-      </c>
-      <c r="H148" t="n">
-        <v>88</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="inlineStr">
-        <is>
-          <t>BQ 21,41,85</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>250</v>
-      </c>
-      <c r="C149" t="n">
-        <v>213</v>
-      </c>
-      <c r="D149" t="n">
-        <v>183</v>
-      </c>
-      <c r="E149" t="n">
-        <v>153</v>
-      </c>
-      <c r="F149" t="n">
-        <v>127</v>
-      </c>
-      <c r="G149" t="n">
-        <v>102</v>
-      </c>
-      <c r="H149" t="n">
-        <v>77</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="inlineStr">
-        <is>
-          <t>BR 22,42,86</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>250</v>
-      </c>
-      <c r="C150" t="n">
-        <v>213</v>
-      </c>
-      <c r="D150" t="n">
-        <v>186</v>
-      </c>
-      <c r="E150" t="n">
-        <v>159</v>
-      </c>
-      <c r="F150" t="n">
-        <v>133</v>
-      </c>
-      <c r="G150" t="n">
-        <v>107</v>
-      </c>
-      <c r="H150" t="n">
-        <v>81</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="inlineStr">
-        <is>
-          <t>BX 21,41,84</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>250</v>
-      </c>
-      <c r="C151" t="n">
-        <v>213</v>
-      </c>
-      <c r="D151" t="n">
-        <v>183</v>
-      </c>
-      <c r="E151" t="n">
-        <v>153</v>
-      </c>
-      <c r="F151" t="n">
-        <v>127</v>
-      </c>
-      <c r="G151" t="n">
-        <v>102</v>
-      </c>
-      <c r="H151" t="n">
-        <v>77</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="inlineStr">
-        <is>
-          <t>BY 22,42,85</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>250</v>
-      </c>
-      <c r="C152" t="n">
-        <v>212</v>
-      </c>
-      <c r="D152" t="n">
-        <v>184</v>
-      </c>
-      <c r="E152" t="n">
-        <v>156</v>
-      </c>
-      <c r="F152" t="n">
-        <v>131</v>
-      </c>
-      <c r="G152" t="n">
-        <v>106</v>
-      </c>
-      <c r="H152" t="n">
-        <v>81</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="inlineStr">
-        <is>
-          <t>CC 24,34,63</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>250</v>
-      </c>
-      <c r="C153" t="n">
-        <v>222</v>
-      </c>
-      <c r="D153" t="n">
-        <v>195</v>
-      </c>
-      <c r="E153" t="n">
-        <v>163</v>
-      </c>
-      <c r="F153" t="n">
-        <v>137</v>
-      </c>
-      <c r="G153" t="n">
-        <v>111</v>
-      </c>
-      <c r="H153" t="n">
-        <v>85</v>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="inlineStr">
-        <is>
-          <t>CQ 21,31,88</t>
-        </is>
-      </c>
-      <c r="B154" t="n">
-        <v>250</v>
-      </c>
-      <c r="C154" t="n">
-        <v>209</v>
-      </c>
-      <c r="D154" t="n">
-        <v>177</v>
-      </c>
-      <c r="E154" t="n">
-        <v>145</v>
-      </c>
-      <c r="F154" t="n">
-        <v>120</v>
-      </c>
-      <c r="G154" t="n">
-        <v>95</v>
-      </c>
-      <c r="H154" t="n">
-        <v>71</v>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="inlineStr">
-        <is>
-          <t>CR 22,32,89</t>
-        </is>
-      </c>
-      <c r="B155" t="n">
-        <v>250</v>
-      </c>
-      <c r="C155" t="n">
-        <v>215</v>
-      </c>
-      <c r="D155" t="n">
-        <v>183</v>
-      </c>
-      <c r="E155" t="n">
-        <v>151</v>
-      </c>
-      <c r="F155" t="n">
-        <v>125</v>
-      </c>
-      <c r="G155" t="n">
-        <v>99</v>
-      </c>
-      <c r="H155" t="n">
-        <v>73</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="inlineStr">
-        <is>
-          <t>CY 22,32,88</t>
-        </is>
-      </c>
-      <c r="B156" t="n">
-        <v>250</v>
-      </c>
-      <c r="C156" t="n">
-        <v>209</v>
-      </c>
-      <c r="D156" t="n">
-        <v>177</v>
-      </c>
-      <c r="E156" t="n">
-        <v>145</v>
-      </c>
-      <c r="F156" t="n">
-        <v>120</v>
-      </c>
-      <c r="G156" t="n">
-        <v>95</v>
-      </c>
-      <c r="H156" t="n">
-        <v>71</v>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="inlineStr">
-        <is>
-          <t>CZ 23,33,89</t>
-        </is>
-      </c>
-      <c r="B157" t="n">
-        <v>250</v>
-      </c>
-      <c r="C157" t="n">
-        <v>215</v>
-      </c>
-      <c r="D157" t="n">
-        <v>183</v>
-      </c>
-      <c r="E157" t="n">
-        <v>151</v>
-      </c>
-      <c r="F157" t="n">
-        <v>125</v>
-      </c>
-      <c r="G157" t="n">
-        <v>99</v>
-      </c>
-      <c r="H157" t="n">
-        <v>73</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="inlineStr">
-        <is>
-          <t>DN 24,44,95</t>
-        </is>
-      </c>
-      <c r="B158" t="n">
-        <v>250</v>
-      </c>
-      <c r="C158" t="n">
-        <v>209</v>
-      </c>
-      <c r="D158" t="n">
-        <v>180</v>
-      </c>
-      <c r="E158" t="n">
-        <v>151</v>
-      </c>
-      <c r="F158" t="n">
-        <v>126</v>
-      </c>
-      <c r="G158" t="n">
-        <v>102</v>
-      </c>
-      <c r="H158" t="n">
-        <v>78</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="inlineStr">
-        <is>
-          <t>DX 21,41,94</t>
-        </is>
-      </c>
-      <c r="B159" t="n">
-        <v>250</v>
-      </c>
-      <c r="C159" t="n">
-        <v>208</v>
-      </c>
-      <c r="D159" t="n">
-        <v>178</v>
-      </c>
-      <c r="E159" t="n">
-        <v>148</v>
-      </c>
-      <c r="F159" t="n">
-        <v>123</v>
-      </c>
-      <c r="G159" t="n">
-        <v>98</v>
-      </c>
-      <c r="H159" t="n">
-        <v>74</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="inlineStr">
-        <is>
-          <t>DY 22,42,95</t>
-        </is>
-      </c>
-      <c r="B160" t="n">
-        <v>250</v>
-      </c>
-      <c r="C160" t="n">
-        <v>207</v>
-      </c>
-      <c r="D160" t="n">
-        <v>179</v>
-      </c>
-      <c r="E160" t="n">
-        <v>151</v>
-      </c>
-      <c r="F160" t="n">
-        <v>126</v>
-      </c>
-      <c r="G160" t="n">
-        <v>102</v>
-      </c>
-      <c r="H160" t="n">
-        <v>78</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="inlineStr">
-        <is>
-          <t>EN 24,34,98</t>
-        </is>
-      </c>
-      <c r="B161" t="n">
-        <v>250</v>
-      </c>
-      <c r="C161" t="n">
-        <v>209</v>
-      </c>
-      <c r="D161" t="n">
-        <v>181</v>
-      </c>
-      <c r="E161" t="n">
-        <v>153</v>
-      </c>
-      <c r="F161" t="n">
-        <v>128</v>
-      </c>
-      <c r="G161" t="n">
-        <v>104</v>
-      </c>
-      <c r="H161" t="n">
-        <v>80</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="inlineStr">
-        <is>
-          <t>EX 21,31,97</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>250</v>
-      </c>
-      <c r="C162" t="n">
-        <v>209</v>
-      </c>
-      <c r="D162" t="n">
-        <v>181</v>
-      </c>
-      <c r="E162" t="n">
-        <v>153</v>
-      </c>
-      <c r="F162" t="n">
-        <v>128</v>
-      </c>
-      <c r="G162" t="n">
-        <v>104</v>
-      </c>
-      <c r="H162" t="n">
-        <v>80</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="inlineStr">
-        <is>
-          <t>EY 22,32,98</t>
-        </is>
-      </c>
-      <c r="B163" t="n">
-        <v>250</v>
-      </c>
-      <c r="C163" t="n">
-        <v>209</v>
-      </c>
-      <c r="D163" t="n">
-        <v>181</v>
-      </c>
-      <c r="E163" t="n">
-        <v>153</v>
-      </c>
-      <c r="F163" t="n">
-        <v>128</v>
-      </c>
-      <c r="G163" t="n">
-        <v>104</v>
-      </c>
-      <c r="H163" t="n">
-        <v>80</v>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="inlineStr">
-        <is>
-          <t>EZ 23,33,99</t>
-        </is>
-      </c>
-      <c r="B164" t="n">
-        <v>250</v>
-      </c>
-      <c r="C164" t="n">
-        <v>209</v>
-      </c>
-      <c r="D164" t="n">
-        <v>181</v>
-      </c>
-      <c r="E164" t="n">
-        <v>153</v>
-      </c>
-      <c r="F164" t="n">
-        <v>128</v>
-      </c>
-      <c r="G164" t="n">
-        <v>104</v>
-      </c>
-      <c r="H164" t="n">
-        <v>80</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="inlineStr">
-        <is>
-          <t>S1 11,31</t>
-        </is>
-      </c>
-      <c r="B165" t="n">
-        <v>125</v>
-      </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>74</v>
-      </c>
-      <c r="E165" t="n">
-        <v>56</v>
-      </c>
-      <c r="F165" t="n">
-        <v>46</v>
-      </c>
-      <c r="G165" t="n">
-        <v>37</v>
-      </c>
-      <c r="H165" t="n">
-        <v>28</v>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="inlineStr">
-        <is>
-          <t>S2 11,41</t>
-        </is>
-      </c>
-      <c r="B166" t="n">
-        <v>125</v>
-      </c>
-      <c r="C166" t="n">
-        <v>0</v>
-      </c>
-      <c r="D166" t="n">
-        <v>87</v>
-      </c>
-      <c r="E166" t="n">
-        <v>70</v>
-      </c>
-      <c r="F166" t="n">
-        <v>58</v>
-      </c>
-      <c r="G166" t="n">
-        <v>46</v>
-      </c>
-      <c r="H166" t="n">
-        <v>34</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="inlineStr">
-        <is>
-          <t>S3 12,32</t>
-        </is>
-      </c>
-      <c r="B167" t="n">
-        <v>125</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>70</v>
-      </c>
-      <c r="E167" t="n">
-        <v>53</v>
-      </c>
-      <c r="F167" t="n">
-        <v>43</v>
-      </c>
-      <c r="G167" t="n">
-        <v>34</v>
-      </c>
-      <c r="H167" t="n">
-        <v>25</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="inlineStr">
-        <is>
-          <t>S4 12,42</t>
-        </is>
-      </c>
-      <c r="B168" t="n">
-        <v>125</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0</v>
-      </c>
-      <c r="D168" t="n">
-        <v>84</v>
-      </c>
-      <c r="E168" t="n">
-        <v>70</v>
-      </c>
-      <c r="F168" t="n">
-        <v>58</v>
-      </c>
-      <c r="G168" t="n">
-        <v>46</v>
-      </c>
-      <c r="H168" t="n">
-        <v>35</v>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="inlineStr">
-        <is>
-          <t>S5 13,33</t>
-        </is>
-      </c>
-      <c r="B169" t="n">
-        <v>125</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0</v>
-      </c>
-      <c r="D169" t="n">
-        <v>74</v>
-      </c>
-      <c r="E169" t="n">
-        <v>56</v>
-      </c>
-      <c r="F169" t="n">
-        <v>46</v>
-      </c>
-      <c r="G169" t="n">
-        <v>37</v>
-      </c>
-      <c r="H169" t="n">
-        <v>28</v>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="inlineStr">
-        <is>
-          <t>S6 13,43</t>
-        </is>
-      </c>
-      <c r="B170" t="n">
-        <v>125</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>87</v>
-      </c>
-      <c r="E170" t="n">
-        <v>70</v>
-      </c>
-      <c r="F170" t="n">
-        <v>58</v>
-      </c>
-      <c r="G170" t="n">
-        <v>46</v>
-      </c>
-      <c r="H170" t="n">
-        <v>34</v>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="inlineStr">
-        <is>
-          <t>S7 14,34</t>
-        </is>
-      </c>
-      <c r="B171" t="n">
-        <v>125</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0</v>
-      </c>
-      <c r="D171" t="n">
-        <v>74</v>
-      </c>
-      <c r="E171" t="n">
-        <v>56</v>
-      </c>
-      <c r="F171" t="n">
-        <v>46</v>
-      </c>
-      <c r="G171" t="n">
-        <v>37</v>
-      </c>
-      <c r="H171" t="n">
-        <v>28</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="inlineStr">
-        <is>
-          <t>S8 14,44</t>
-        </is>
-      </c>
-      <c r="B172" t="n">
-        <v>125</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0</v>
-      </c>
-      <c r="D172" t="n">
-        <v>89</v>
-      </c>
-      <c r="E172" t="n">
-        <v>73</v>
-      </c>
-      <c r="F172" t="n">
-        <v>61</v>
-      </c>
-      <c r="G172" t="n">
-        <v>49</v>
-      </c>
-      <c r="H172" t="n">
-        <v>38</v>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>November 2025</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/AL/further-mathematics/further-mathematics-thresholds.xlsx
+++ b/thresholds/AL/further-mathematics/further-mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J121"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>date</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -509,17 +504,14 @@
       <c r="G2" t="n">
         <v>112</v>
       </c>
-      <c r="H2" t="n">
-        <v>84</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -547,17 +539,14 @@
       <c r="G3" t="n">
         <v>112</v>
       </c>
-      <c r="H3" t="n">
-        <v>84</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -585,17 +574,14 @@
       <c r="G4" t="n">
         <v>108</v>
       </c>
-      <c r="H4" t="n">
-        <v>80</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -623,17 +609,14 @@
       <c r="G5" t="n">
         <v>106</v>
       </c>
-      <c r="H5" t="n">
-        <v>77</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -661,17 +644,14 @@
       <c r="G6" t="n">
         <v>107</v>
       </c>
-      <c r="H6" t="n">
-        <v>79</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -699,17 +679,14 @@
       <c r="G7" t="n">
         <v>105</v>
       </c>
-      <c r="H7" t="n">
-        <v>76</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -737,17 +714,14 @@
       <c r="G8" t="n">
         <v>106</v>
       </c>
-      <c r="H8" t="n">
-        <v>78</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -775,17 +749,14 @@
       <c r="G9" t="n">
         <v>103</v>
       </c>
-      <c r="H9" t="n">
-        <v>78</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -813,17 +784,14 @@
       <c r="G10" t="n">
         <v>103</v>
       </c>
-      <c r="H10" t="n">
-        <v>78</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -851,17 +819,14 @@
       <c r="G11" t="n">
         <v>103</v>
       </c>
-      <c r="H11" t="n">
-        <v>78</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -889,17 +854,14 @@
       <c r="G12" t="n">
         <v>103</v>
       </c>
-      <c r="H12" t="n">
-        <v>78</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -927,17 +889,14 @@
       <c r="G13" t="n">
         <v>101</v>
       </c>
-      <c r="H13" t="n">
-        <v>74</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -965,17 +924,14 @@
       <c r="G14" t="n">
         <v>101</v>
       </c>
-      <c r="H14" t="n">
-        <v>74</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1003,17 +959,14 @@
       <c r="G15" t="n">
         <v>101</v>
       </c>
-      <c r="H15" t="n">
-        <v>74</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1041,17 +994,14 @@
       <c r="G16" t="n">
         <v>65</v>
       </c>
-      <c r="H16" t="n">
-        <v>49</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>June 2023</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1029,14 @@
       <c r="G17" t="n">
         <v>94</v>
       </c>
-      <c r="H17" t="n">
-        <v>71</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1064,14 @@
       <c r="G18" t="n">
         <v>94</v>
       </c>
-      <c r="H18" t="n">
-        <v>71</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1099,14 @@
       <c r="G19" t="n">
         <v>99</v>
       </c>
-      <c r="H19" t="n">
-        <v>76</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1193,17 +1134,14 @@
       <c r="G20" t="n">
         <v>105</v>
       </c>
-      <c r="H20" t="n">
-        <v>79</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1231,17 +1169,14 @@
       <c r="G21" t="n">
         <v>101</v>
       </c>
-      <c r="H21" t="n">
-        <v>75</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1269,17 +1204,14 @@
       <c r="G22" t="n">
         <v>102</v>
       </c>
-      <c r="H22" t="n">
-        <v>78</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1307,17 +1239,14 @@
       <c r="G23" t="n">
         <v>104</v>
       </c>
-      <c r="H23" t="n">
-        <v>79</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1345,17 +1274,14 @@
       <c r="G24" t="n">
         <v>100</v>
       </c>
-      <c r="H24" t="n">
-        <v>78</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1383,17 +1309,14 @@
       <c r="G25" t="n">
         <v>102</v>
       </c>
-      <c r="H25" t="n">
-        <v>80</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1344,14 @@
       <c r="G26" t="n">
         <v>100</v>
       </c>
-      <c r="H26" t="n">
-        <v>78</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1459,17 +1379,14 @@
       <c r="G27" t="n">
         <v>102</v>
       </c>
-      <c r="H27" t="n">
-        <v>80</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1497,17 +1414,14 @@
       <c r="G28" t="n">
         <v>96</v>
       </c>
-      <c r="H28" t="n">
-        <v>74</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1535,17 +1449,14 @@
       <c r="G29" t="n">
         <v>107</v>
       </c>
-      <c r="H29" t="n">
-        <v>85</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1573,17 +1484,14 @@
       <c r="G30" t="n">
         <v>101</v>
       </c>
-      <c r="H30" t="n">
-        <v>80</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1611,17 +1519,14 @@
       <c r="G31" t="n">
         <v>94</v>
       </c>
-      <c r="H31" t="n">
-        <v>71</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1554,14 @@
       <c r="G32" t="n">
         <v>105</v>
       </c>
-      <c r="H32" t="n">
-        <v>79</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1687,17 +1589,14 @@
       <c r="G33" t="n">
         <v>102</v>
       </c>
-      <c r="H33" t="n">
-        <v>78</v>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1725,17 +1624,14 @@
       <c r="G34" t="n">
         <v>102</v>
       </c>
-      <c r="H34" t="n">
-        <v>80</v>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1763,17 +1659,14 @@
       <c r="G35" t="n">
         <v>101</v>
       </c>
-      <c r="H35" t="n">
-        <v>80</v>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1801,17 +1694,14 @@
       <c r="G36" t="n">
         <v>94</v>
       </c>
-      <c r="H36" t="n">
-        <v>71</v>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1839,17 +1729,14 @@
       <c r="G37" t="n">
         <v>105</v>
       </c>
-      <c r="H37" t="n">
-        <v>79</v>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1877,17 +1764,14 @@
       <c r="G38" t="n">
         <v>102</v>
       </c>
-      <c r="H38" t="n">
-        <v>78</v>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1915,17 +1799,14 @@
       <c r="G39" t="n">
         <v>100</v>
       </c>
-      <c r="H39" t="n">
-        <v>78</v>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1953,17 +1834,14 @@
       <c r="G40" t="n">
         <v>96</v>
       </c>
-      <c r="H40" t="n">
-        <v>74</v>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1869,14 @@
       <c r="G41" t="n">
         <v>99</v>
       </c>
-      <c r="H41" t="n">
-        <v>76</v>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2029,17 +1904,14 @@
       <c r="G42" t="n">
         <v>101</v>
       </c>
-      <c r="H42" t="n">
-        <v>75</v>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2067,17 +1939,14 @@
       <c r="G43" t="n">
         <v>104</v>
       </c>
-      <c r="H43" t="n">
-        <v>79</v>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2105,17 +1974,14 @@
       <c r="G44" t="n">
         <v>102</v>
       </c>
-      <c r="H44" t="n">
-        <v>80</v>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2143,17 +2009,14 @@
       <c r="G45" t="n">
         <v>107</v>
       </c>
-      <c r="H45" t="n">
-        <v>85</v>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>June 2024</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2181,17 +2044,14 @@
       <c r="G46" t="n">
         <v>117</v>
       </c>
-      <c r="H46" t="n">
-        <v>92</v>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2219,17 +2079,14 @@
       <c r="G47" t="n">
         <v>94</v>
       </c>
-      <c r="H47" t="n">
-        <v>71</v>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2257,17 +2114,14 @@
       <c r="G48" t="n">
         <v>94</v>
       </c>
-      <c r="H48" t="n">
-        <v>71</v>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2295,17 +2149,14 @@
       <c r="G49" t="n">
         <v>97</v>
       </c>
-      <c r="H49" t="n">
-        <v>73</v>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2333,17 +2184,14 @@
       <c r="G50" t="n">
         <v>110</v>
       </c>
-      <c r="H50" t="n">
-        <v>87</v>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2371,17 +2219,14 @@
       <c r="G51" t="n">
         <v>90</v>
       </c>
-      <c r="H51" t="n">
-        <v>68</v>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2409,17 +2254,14 @@
       <c r="G52" t="n">
         <v>98</v>
       </c>
-      <c r="H52" t="n">
-        <v>75</v>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2447,17 +2289,14 @@
       <c r="G53" t="n">
         <v>105</v>
       </c>
-      <c r="H53" t="n">
-        <v>81</v>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2485,17 +2324,14 @@
       <c r="G54" t="n">
         <v>97</v>
       </c>
-      <c r="H54" t="n">
-        <v>74</v>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2523,17 +2359,14 @@
       <c r="G55" t="n">
         <v>97</v>
       </c>
-      <c r="H55" t="n">
-        <v>74</v>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2561,17 +2394,14 @@
       <c r="G56" t="n">
         <v>104</v>
       </c>
-      <c r="H56" t="n">
-        <v>82</v>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2599,17 +2429,14 @@
       <c r="G57" t="n">
         <v>90</v>
       </c>
-      <c r="H57" t="n">
-        <v>68</v>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2637,17 +2464,14 @@
       <c r="G58" t="n">
         <v>92</v>
       </c>
-      <c r="H58" t="n">
-        <v>70</v>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2675,17 +2499,14 @@
       <c r="G59" t="n">
         <v>90</v>
       </c>
-      <c r="H59" t="n">
-        <v>68</v>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2713,17 +2534,14 @@
       <c r="G60" t="n">
         <v>110</v>
       </c>
-      <c r="H60" t="n">
-        <v>87</v>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2751,17 +2569,14 @@
       <c r="G61" t="n">
         <v>102</v>
       </c>
-      <c r="H61" t="n">
-        <v>80</v>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2789,17 +2604,14 @@
       <c r="G62" t="n">
         <v>102</v>
       </c>
-      <c r="H62" t="n">
-        <v>80</v>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2827,17 +2639,14 @@
       <c r="G63" t="n">
         <v>102</v>
       </c>
-      <c r="H63" t="n">
-        <v>80</v>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>June 2025</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2865,17 +2674,14 @@
       <c r="G64" t="n">
         <v>99</v>
       </c>
-      <c r="H64" t="n">
-        <v>75</v>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2903,17 +2709,14 @@
       <c r="G65" t="n">
         <v>113</v>
       </c>
-      <c r="H65" t="n">
-        <v>90</v>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2941,17 +2744,14 @@
       <c r="G66" t="n">
         <v>99</v>
       </c>
-      <c r="H66" t="n">
-        <v>75</v>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -2979,17 +2779,14 @@
       <c r="G67" t="n">
         <v>104</v>
       </c>
-      <c r="H67" t="n">
-        <v>76</v>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3017,17 +2814,14 @@
       <c r="G68" t="n">
         <v>112</v>
       </c>
-      <c r="H68" t="n">
-        <v>85</v>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3055,17 +2849,14 @@
       <c r="G69" t="n">
         <v>116</v>
       </c>
-      <c r="H69" t="n">
-        <v>89</v>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3093,17 +2884,14 @@
       <c r="G70" t="n">
         <v>105</v>
       </c>
-      <c r="H70" t="n">
-        <v>79</v>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3131,17 +2919,14 @@
       <c r="G71" t="n">
         <v>109</v>
       </c>
-      <c r="H71" t="n">
-        <v>84</v>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3169,17 +2954,14 @@
       <c r="G72" t="n">
         <v>113</v>
       </c>
-      <c r="H72" t="n">
-        <v>88</v>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3207,17 +2989,14 @@
       <c r="G73" t="n">
         <v>95</v>
       </c>
-      <c r="H73" t="n">
-        <v>70</v>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3245,17 +3024,14 @@
       <c r="G74" t="n">
         <v>106</v>
       </c>
-      <c r="H74" t="n">
-        <v>83</v>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3283,17 +3059,14 @@
       <c r="G75" t="n">
         <v>95</v>
       </c>
-      <c r="H75" t="n">
-        <v>70</v>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3321,17 +3094,14 @@
       <c r="G76" t="n">
         <v>94</v>
       </c>
-      <c r="H76" t="n">
-        <v>69</v>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3359,17 +3129,14 @@
       <c r="G77" t="n">
         <v>102</v>
       </c>
-      <c r="H77" t="n">
-        <v>78</v>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3397,17 +3164,14 @@
       <c r="G78" t="n">
         <v>94</v>
       </c>
-      <c r="H78" t="n">
-        <v>69</v>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3435,17 +3199,14 @@
       <c r="G79" t="n">
         <v>113</v>
       </c>
-      <c r="H79" t="n">
-        <v>90</v>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3473,17 +3234,14 @@
       <c r="G80" t="n">
         <v>99</v>
       </c>
-      <c r="H80" t="n">
-        <v>75</v>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3511,17 +3269,14 @@
       <c r="G81" t="n">
         <v>99</v>
       </c>
-      <c r="H81" t="n">
-        <v>75</v>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
           <t>November 2023</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3549,17 +3304,14 @@
       <c r="G82" t="n">
         <v>107</v>
       </c>
-      <c r="H82" t="n">
-        <v>83</v>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3339,14 @@
       <c r="G83" t="n">
         <v>107</v>
       </c>
-      <c r="H83" t="n">
-        <v>83</v>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3625,17 +3374,14 @@
       <c r="G84" t="n">
         <v>107</v>
       </c>
-      <c r="H84" t="n">
-        <v>83</v>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3663,17 +3409,14 @@
       <c r="G85" t="n">
         <v>107</v>
       </c>
-      <c r="H85" t="n">
-        <v>83</v>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3701,17 +3444,14 @@
       <c r="G86" t="n">
         <v>113</v>
       </c>
-      <c r="H86" t="n">
-        <v>88</v>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3739,17 +3479,14 @@
       <c r="G87" t="n">
         <v>107</v>
       </c>
-      <c r="H87" t="n">
-        <v>83</v>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3777,17 +3514,14 @@
       <c r="G88" t="n">
         <v>113</v>
       </c>
-      <c r="H88" t="n">
-        <v>88</v>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3815,17 +3549,14 @@
       <c r="G89" t="n">
         <v>102</v>
       </c>
-      <c r="H89" t="n">
-        <v>77</v>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3853,17 +3584,14 @@
       <c r="G90" t="n">
         <v>102</v>
       </c>
-      <c r="H90" t="n">
-        <v>77</v>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3891,17 +3619,14 @@
       <c r="G91" t="n">
         <v>102</v>
       </c>
-      <c r="H91" t="n">
-        <v>77</v>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3929,17 +3654,14 @@
       <c r="G92" t="n">
         <v>113</v>
       </c>
-      <c r="H92" t="n">
-        <v>90</v>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -3967,17 +3689,14 @@
       <c r="G93" t="n">
         <v>115</v>
       </c>
-      <c r="H93" t="n">
-        <v>92</v>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -4005,17 +3724,14 @@
       <c r="G94" t="n">
         <v>113</v>
       </c>
-      <c r="H94" t="n">
-        <v>90</v>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -4043,17 +3759,14 @@
       <c r="G95" t="n">
         <v>104</v>
       </c>
-      <c r="H95" t="n">
-        <v>80</v>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -4081,17 +3794,14 @@
       <c r="G96" t="n">
         <v>110</v>
       </c>
-      <c r="H96" t="n">
-        <v>86</v>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -4119,17 +3829,14 @@
       <c r="G97" t="n">
         <v>107</v>
       </c>
-      <c r="H97" t="n">
-        <v>83</v>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -4157,17 +3864,14 @@
       <c r="G98" t="n">
         <v>107</v>
       </c>
-      <c r="H98" t="n">
-        <v>83</v>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -4195,17 +3899,14 @@
       <c r="G99" t="n">
         <v>107</v>
       </c>
-      <c r="H99" t="n">
-        <v>83</v>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -4233,17 +3934,14 @@
       <c r="G100" t="n">
         <v>107</v>
       </c>
-      <c r="H100" t="n">
-        <v>83</v>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>November 2024</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>further-mathematics</t>
         </is>
       </c>
     </row>
@@ -4271,15 +3969,16 @@
       <c r="G101" t="n">
         <v>102</v>
       </c>
-      <c r="H101" t="n">
-        <v>79</v>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -4305,15 +4004,16 @@
       <c r="G102" t="n">
         <v>99</v>
       </c>
-      <c r="H102" t="n">
-        <v>75</v>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -4339,15 +4039,16 @@
       <c r="G103" t="n">
         <v>99</v>
       </c>
-      <c r="H103" t="n">
-        <v>76</v>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
@@ -4373,15 +4074,16 @@
       <c r="G104" t="n">
         <v>99</v>
       </c>
-      <c r="H104" t="n">
-        <v>75</v>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -4407,15 +4109,16 @@
       <c r="G105" t="n">
         <v>115</v>
       </c>
-      <c r="H105" t="n">
-        <v>88</v>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
@@ -4441,15 +4144,16 @@
       <c r="G106" t="n">
         <v>102</v>
       </c>
-      <c r="H106" t="n">
-        <v>77</v>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
@@ -4475,15 +4179,16 @@
       <c r="G107" t="n">
         <v>107</v>
       </c>
-      <c r="H107" t="n">
-        <v>81</v>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -4509,15 +4214,16 @@
       <c r="G108" t="n">
         <v>102</v>
       </c>
-      <c r="H108" t="n">
-        <v>77</v>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -4543,15 +4249,16 @@
       <c r="G109" t="n">
         <v>106</v>
       </c>
-      <c r="H109" t="n">
-        <v>81</v>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -4577,15 +4284,16 @@
       <c r="G110" t="n">
         <v>111</v>
       </c>
-      <c r="H110" t="n">
-        <v>85</v>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
@@ -4611,15 +4319,16 @@
       <c r="G111" t="n">
         <v>95</v>
       </c>
-      <c r="H111" t="n">
-        <v>71</v>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
@@ -4645,15 +4354,16 @@
       <c r="G112" t="n">
         <v>99</v>
       </c>
-      <c r="H112" t="n">
-        <v>73</v>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
@@ -4679,15 +4389,16 @@
       <c r="G113" t="n">
         <v>95</v>
       </c>
-      <c r="H113" t="n">
-        <v>71</v>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
@@ -4713,15 +4424,16 @@
       <c r="G114" t="n">
         <v>99</v>
       </c>
-      <c r="H114" t="n">
-        <v>73</v>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
@@ -4747,15 +4459,16 @@
       <c r="G115" t="n">
         <v>102</v>
       </c>
-      <c r="H115" t="n">
-        <v>78</v>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
@@ -4781,15 +4494,16 @@
       <c r="G116" t="n">
         <v>98</v>
       </c>
-      <c r="H116" t="n">
-        <v>74</v>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
@@ -4815,15 +4529,16 @@
       <c r="G117" t="n">
         <v>102</v>
       </c>
-      <c r="H117" t="n">
-        <v>78</v>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
@@ -4849,15 +4564,16 @@
       <c r="G118" t="n">
         <v>104</v>
       </c>
-      <c r="H118" t="n">
-        <v>80</v>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
@@ -4883,15 +4599,16 @@
       <c r="G119" t="n">
         <v>104</v>
       </c>
-      <c r="H119" t="n">
-        <v>80</v>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
@@ -4917,15 +4634,16 @@
       <c r="G120" t="n">
         <v>104</v>
       </c>
-      <c r="H120" t="n">
-        <v>80</v>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
@@ -4951,15 +4669,16 @@
       <c r="G121" t="n">
         <v>104</v>
       </c>
-      <c r="H121" t="n">
-        <v>80</v>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/thresholds/AL/further-mathematics/further-mathematics-thresholds.xlsx
+++ b/thresholds/AL/further-mathematics/further-mathematics-thresholds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,205 +1008,205 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AX (AX1) 11,21,31,41</t>
+          <t>S1 11,31</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C17" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="E17" t="n">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F17" t="n">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G17" t="n">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AY (AY1) 12,22,32,42</t>
+          <t>S3 12,32</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C18" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="E18" t="n">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="F18" t="n">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="G18" t="n">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>35</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AZ (AZ1) 13,23,33,43</t>
+          <t>S4 12,42</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C19" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="E19" t="n">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="F19" t="n">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="G19" t="n">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,85</t>
+          <t>S5 13,33</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C20" t="n">
-        <v>223</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="E20" t="n">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="F20" t="n">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="G20" t="n">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>31</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,86</t>
+          <t>S6 13,43</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C21" t="n">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>193</v>
+        <v>94</v>
       </c>
       <c r="E21" t="n">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="F21" t="n">
-        <v>127</v>
+        <v>65</v>
       </c>
       <c r="G21" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>June 2024</t>
+          <t>June 2023</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CY 22,32,88</t>
+          <t>AX (AX1) 11,21,31,41</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>250</v>
       </c>
       <c r="C22" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D22" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E22" t="n">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F22" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G22" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1218,30 +1218,30 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,33,89</t>
+          <t>AX (AX2) 11,31</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C23" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="F23" t="n">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="G23" t="n">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1253,30 +1253,30 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>DT 22,42,94</t>
+          <t>AX (AX3) 11,41</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C24" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="E24" t="n">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="F24" t="n">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1288,30 +1288,30 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>DU 23,43,95</t>
+          <t>AY (AY1) 12,22,32,42</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>250</v>
       </c>
       <c r="C25" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D25" t="n">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E25" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F25" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G25" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1323,30 +1323,30 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>DX 21,41,94</t>
+          <t>AY (AY2) 12,32</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C26" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="E26" t="n">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="F26" t="n">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1358,30 +1358,30 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>DY 22,42,95</t>
+          <t>AY (AY3) 12,42</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C27" t="n">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="E27" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="F27" t="n">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="G27" t="n">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1393,30 +1393,30 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ET 22,32,97</t>
+          <t>AZ (AZ1) 13,23,33,43</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>250</v>
       </c>
       <c r="C28" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D28" t="n">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E28" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F28" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G28" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1428,30 +1428,30 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>EU 23,33,98</t>
+          <t>AZ (AZ2) 13,33</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C29" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>189</v>
+        <v>85</v>
       </c>
       <c r="E29" t="n">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="F29" t="n">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="G29" t="n">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1463,30 +1463,30 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>EY 22,32,98</t>
+          <t>AZ (AZ3) 13,43</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C30" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>180</v>
+        <v>94</v>
       </c>
       <c r="E30" t="n">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="F30" t="n">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="G30" t="n">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1498,30 +1498,30 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>FY (FY1) 12,22,32,42</t>
+          <t>BY 22,42,85</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>250</v>
       </c>
       <c r="C31" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="D31" t="n">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E31" t="n">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F31" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G31" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1533,30 +1533,30 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>FY (FY2) 22,42,85</t>
+          <t>BZ 23,43,86</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>250</v>
       </c>
       <c r="C32" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D32" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E32" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F32" t="n">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G32" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>FY (FY3) 22,32,88</t>
+          <t>CY 22,32,88</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1603,30 +1603,30 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>FY (FY4) 22,42,95</t>
+          <t>CZ 23,33,89</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>250</v>
       </c>
       <c r="C34" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D34" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E34" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F34" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G34" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -1638,30 +1638,30 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>FY (FY5) 22,32,98</t>
+          <t>DT 22,42,94</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>250</v>
       </c>
       <c r="C35" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E35" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F35" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G35" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -1673,30 +1673,30 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>GT (GT1) 12,22,32,42</t>
+          <t>DU 23,43,95</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>250</v>
       </c>
       <c r="C36" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D36" t="n">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E36" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F36" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G36" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1708,30 +1708,30 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>GT (GT2) 22,42,85</t>
+          <t>DX 21,41,94</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>250</v>
       </c>
       <c r="C37" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D37" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="E37" t="n">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F37" t="n">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G37" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -1743,7 +1743,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>GT (GT3) 22,32,88</t>
+          <t>DY 22,42,95</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1753,20 +1753,20 @@
         <v>218</v>
       </c>
       <c r="D38" t="n">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E38" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F38" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G38" t="n">
         <v>102</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -1778,30 +1778,30 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>GT (GT4) 22,42,94</t>
+          <t>ET 22,32,97</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>250</v>
       </c>
       <c r="C39" t="n">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D39" t="n">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E39" t="n">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F39" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G39" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -1813,30 +1813,30 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>GT (GT5) 22,32,97</t>
+          <t>EU 23,33,98</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>250</v>
       </c>
       <c r="C40" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D40" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E40" t="n">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="F40" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G40" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -1848,30 +1848,30 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>GU (GU1) 13,23,33,43</t>
+          <t>EY 22,32,98</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>250</v>
       </c>
       <c r="C41" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D41" t="n">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E41" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F41" t="n">
         <v>123</v>
       </c>
       <c r="G41" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -1883,30 +1883,30 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>GU (GU2) 23,43,86</t>
+          <t>FY (FY1) 12,22,32,42</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>250</v>
       </c>
       <c r="C42" t="n">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D42" t="n">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="E42" t="n">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="F42" t="n">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G42" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -1918,26 +1918,26 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>GU (GU3) 23,33,89</t>
+          <t>FY (FY2) 22,42,85</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>250</v>
       </c>
       <c r="C43" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D43" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E43" t="n">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F43" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G43" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -1953,7 +1953,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>GU (GU4) 23,43,95</t>
+          <t>FY (FY3) 22,32,88</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1963,20 +1963,20 @@
         <v>218</v>
       </c>
       <c r="D44" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E44" t="n">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F44" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G44" t="n">
         <v>102</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -1988,30 +1988,30 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>GU (GU5) 23,33,98</t>
+          <t>FY (FY4) 22,42,95</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>250</v>
       </c>
       <c r="C45" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D45" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E45" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F45" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G45" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2023,112 +2023,112 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>AC 14,24,34,44</t>
+          <t>FY (FY5) 22,32,98</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>250</v>
       </c>
       <c r="C46" t="n">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="D46" t="n">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E46" t="n">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="F46" t="n">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="G46" t="n">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>FY (FY6) 12,32</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C47" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>175</v>
+        <v>76</v>
       </c>
       <c r="E47" t="n">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="F47" t="n">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="G47" t="n">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>FY (FY7) 12,42</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C48" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="E48" t="n">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="F48" t="n">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="G48" t="n">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>GT (GT1) 12,22,32,42</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2138,382 +2138,382 @@
         <v>216</v>
       </c>
       <c r="D49" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E49" t="n">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F49" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G49" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>BN 24,44,86</t>
+          <t>GT (GT2) 22,42,85</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>250</v>
       </c>
       <c r="C50" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D50" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E50" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F50" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G50" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,85</t>
+          <t>GT (GT3) 22,32,88</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>250</v>
       </c>
       <c r="C51" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D51" t="n">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="E51" t="n">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F51" t="n">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="G51" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,86</t>
+          <t>GT (GT4) 22,42,94</t>
         </is>
       </c>
       <c r="B52" t="n">
         <v>250</v>
       </c>
       <c r="C52" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D52" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E52" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G52" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>CN 24,34,89</t>
+          <t>GT (GT5) 22,32,97</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>250</v>
       </c>
       <c r="C53" t="n">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D53" t="n">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="E53" t="n">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F53" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G53" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>CY 22,32,88</t>
+          <t>GT (GT6) 12,32</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C54" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>183</v>
+        <v>76</v>
       </c>
       <c r="E54" t="n">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="F54" t="n">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="G54" t="n">
-        <v>97</v>
+        <v>37</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,33,89</t>
+          <t>GT (GT7) 12,42</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C55" t="n">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="E55" t="n">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="F55" t="n">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="G55" t="n">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>DN 24,44,95</t>
+          <t>GU (GU1) 13,23,33,43</t>
         </is>
       </c>
       <c r="B56" t="n">
         <v>250</v>
       </c>
       <c r="C56" t="n">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D56" t="n">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="E56" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F56" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G56" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>DT 22,42,94</t>
+          <t>GU (GU2) 23,43,86</t>
         </is>
       </c>
       <c r="B57" t="n">
         <v>250</v>
       </c>
       <c r="C57" t="n">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="D57" t="n">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="E57" t="n">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F57" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="G57" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>DU 23,43,95</t>
+          <t>GU (GU3) 23,33,89</t>
         </is>
       </c>
       <c r="B58" t="n">
         <v>250</v>
       </c>
       <c r="C58" t="n">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D58" t="n">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="E58" t="n">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="F58" t="n">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="G58" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>DY 22,42,95</t>
+          <t>GU (GU4) 23,43,95</t>
         </is>
       </c>
       <c r="B59" t="n">
         <v>250</v>
       </c>
       <c r="C59" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D59" t="n">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E59" t="n">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F59" t="n">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G59" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>EN 24,34,98</t>
+          <t>GU (GU5) 23,33,98</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2526,414 +2526,414 @@
         <v>189</v>
       </c>
       <c r="E60" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F60" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G60" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>ET 22,32,97</t>
+          <t>GU (GU6) 13,33</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C61" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="E61" t="n">
-        <v>148</v>
+        <v>64</v>
       </c>
       <c r="F61" t="n">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="G61" t="n">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>EU 23,33,98</t>
+          <t>GU (GU7) 13,43</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="E62" t="n">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="F62" t="n">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="G62" t="n">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>EY 22,32,98</t>
+          <t>S1 11,31</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C63" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>179</v>
+        <v>76</v>
       </c>
       <c r="E63" t="n">
-        <v>148</v>
+        <v>57</v>
       </c>
       <c r="F63" t="n">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="G63" t="n">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>June 2025</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>S3 12,32</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C64" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="E64" t="n">
-        <v>149</v>
+        <v>57</v>
       </c>
       <c r="F64" t="n">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="G64" t="n">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>S4 12,42</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C65" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="E65" t="n">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="F65" t="n">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="G65" t="n">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>S5 13,33</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C66" t="n">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="E66" t="n">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="F66" t="n">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="G66" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>BQ 21,41,85</t>
+          <t>S6 13,43</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C67" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="E67" t="n">
-        <v>162</v>
+        <v>73</v>
       </c>
       <c r="F67" t="n">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="G67" t="n">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2024</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>BR 22,42,86</t>
+          <t>AC 14,24,34,44</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>250</v>
       </c>
       <c r="C68" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D68" t="n">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E68" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F68" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G68" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>92</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,85</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>250</v>
       </c>
       <c r="C69" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D69" t="n">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E69" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="F69" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="G69" t="n">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>CQ 21,31,88</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>250</v>
       </c>
       <c r="C70" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D70" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="E70" t="n">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="F70" t="n">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G70" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>71</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>CR 22,32,89</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>250</v>
       </c>
       <c r="C71" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D71" t="n">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E71" t="n">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F71" t="n">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G71" t="n">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>73</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>CY 22,32,88</t>
+          <t>BN 24,44,86</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2943,312 +2943,312 @@
         <v>222</v>
       </c>
       <c r="D72" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E72" t="n">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="F72" t="n">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G72" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>87</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>DX 21,41,94</t>
+          <t>BY 22,42,85</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>250</v>
       </c>
       <c r="C73" t="n">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="D73" t="n">
         <v>172</v>
       </c>
       <c r="E73" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F73" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G73" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>68</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>DY 22,42,95</t>
+          <t>BZ 23,43,86</t>
         </is>
       </c>
       <c r="B74" t="n">
         <v>250</v>
       </c>
       <c r="C74" t="n">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D74" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E74" t="n">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F74" t="n">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="G74" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>DZ 23,43,96</t>
+          <t>CN 24,34,89</t>
         </is>
       </c>
       <c r="B75" t="n">
         <v>250</v>
       </c>
       <c r="C75" t="n">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="D75" t="n">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="E75" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F75" t="n">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G75" t="n">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>81</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>EX 21,31,97</t>
+          <t>CY 22,32,88</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>250</v>
       </c>
       <c r="C76" t="n">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D76" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E76" t="n">
         <v>145</v>
       </c>
       <c r="F76" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G76" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>EY 22,32,98</t>
+          <t>CZ 23,33,89</t>
         </is>
       </c>
       <c r="B77" t="n">
         <v>250</v>
       </c>
       <c r="C77" t="n">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D77" t="n">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E77" t="n">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F77" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G77" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>74</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>EZ 23,33,99</t>
+          <t>DN 24,44,95</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>250</v>
       </c>
       <c r="C78" t="n">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D78" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E78" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F78" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="G78" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>82</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>FY 12,22,32,42</t>
+          <t>DT 22,42,94</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>250</v>
       </c>
       <c r="C79" t="n">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D79" t="n">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="E79" t="n">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="F79" t="n">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G79" t="n">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>68</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>FZ 13,23,33,43</t>
+          <t>DU 23,43,95</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>250</v>
       </c>
       <c r="C80" t="n">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D80" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E80" t="n">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F80" t="n">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G80" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>HQ 11,21,31,41</t>
+          <t>DY 22,42,95</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3258,716 +3258,716 @@
         <v>205</v>
       </c>
       <c r="D81" t="n">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E81" t="n">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F81" t="n">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G81" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>68</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>November 2023</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>EN 24,34,98</t>
         </is>
       </c>
       <c r="B82" t="n">
         <v>250</v>
       </c>
       <c r="C82" t="n">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D82" t="n">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E82" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F82" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G82" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>87</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>ET 22,32,97</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>250</v>
       </c>
       <c r="C83" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D83" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E83" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F83" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G83" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>EU 23,33,98</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>250</v>
       </c>
       <c r="C84" t="n">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D84" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E84" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F84" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G84" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>BQ 21,41,85</t>
+          <t>EY 22,32,98</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>250</v>
       </c>
       <c r="C85" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D85" t="n">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E85" t="n">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F85" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G85" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>80</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>BR 22,42,86</t>
+          <t>P2 51</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="C86" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="E86" t="n">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="F86" t="n">
-        <v>138</v>
+        <v>33</v>
       </c>
       <c r="G86" t="n">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,85</t>
+          <t>S1 11,31</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C87" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>186</v>
+        <v>79</v>
       </c>
       <c r="E87" t="n">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="F87" t="n">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="G87" t="n">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>BZ 23,43,86</t>
+          <t>S2 11,41</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C88" t="n">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="E88" t="n">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="F88" t="n">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="G88" t="n">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>CQ 21,31,88</t>
+          <t>S3 12,32</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C89" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>188</v>
+        <v>79</v>
       </c>
       <c r="E89" t="n">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="F89" t="n">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="G89" t="n">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>CR 22,32,89</t>
+          <t>S4 12,42</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C90" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="E90" t="n">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="F90" t="n">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="G90" t="n">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>CY 22,32,88</t>
+          <t>S5 13,33</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C91" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="E91" t="n">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="F91" t="n">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="G91" t="n">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>DX 21,41,94</t>
+          <t>S6 13,43</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C92" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="E92" t="n">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="F92" t="n">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="G92" t="n">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>32</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>DY 22,42,95</t>
+          <t>S7 14,34</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C93" t="n">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="E93" t="n">
-        <v>162</v>
+        <v>75</v>
       </c>
       <c r="F93" t="n">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="G93" t="n">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>37</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>DZ 23,43,96</t>
+          <t>S8 14,44</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C94" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="E94" t="n">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="F94" t="n">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="G94" t="n">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>44</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>June 2025</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>EX 21,31,97</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B95" t="n">
         <v>250</v>
       </c>
       <c r="C95" t="n">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D95" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E95" t="n">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F95" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G95" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>EY 22,32,98</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>250</v>
       </c>
       <c r="C96" t="n">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D96" t="n">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E96" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F96" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G96" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>FY 12,22,32,42</t>
+          <t>AZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>250</v>
       </c>
       <c r="C97" t="n">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D97" t="n">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E97" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F97" t="n">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="G97" t="n">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>FZ 13,23,33,43</t>
+          <t>BQ 21,41,85</t>
         </is>
       </c>
       <c r="B98" t="n">
         <v>250</v>
       </c>
       <c r="C98" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D98" t="n">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E98" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F98" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G98" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>76</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>HQ 11,21,31,41</t>
+          <t>BR 22,42,86</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>250</v>
       </c>
       <c r="C99" t="n">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D99" t="n">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E99" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F99" t="n">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="G99" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>HR 12,22,32,42</t>
+          <t>BY 22,42,85</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>250</v>
       </c>
       <c r="C100" t="n">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D100" t="n">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="E100" t="n">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F100" t="n">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="G100" t="n">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>89</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>November 2024</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>AC 14,24,34,44</t>
+          <t>CQ 21,31,88</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>250</v>
       </c>
       <c r="C101" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D101" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E101" t="n">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F101" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G101" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -3976,705 +3976,2490 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>AX 11,21,31,41</t>
+          <t>CR 22,32,89</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>250</v>
       </c>
       <c r="C102" t="n">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="D102" t="n">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="E102" t="n">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="F102" t="n">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G102" t="n">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>84</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>AY 12,22,32,42</t>
+          <t>CY 22,32,88</t>
         </is>
       </c>
       <c r="B103" t="n">
         <v>250</v>
       </c>
       <c r="C103" t="n">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="D103" t="n">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="E103" t="n">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="F103" t="n">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G103" t="n">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>88</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>AZ 13,23,33,43</t>
+          <t>DX 21,41,94</t>
         </is>
       </c>
       <c r="B104" t="n">
         <v>250</v>
       </c>
       <c r="C104" t="n">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D104" t="n">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E104" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F104" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G104" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>BC 24,44,62</t>
+          <t>DY 22,42,95</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>250</v>
       </c>
       <c r="C105" t="n">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="D105" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E105" t="n">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="F105" t="n">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G105" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>BQ 21,41,85</t>
+          <t>DZ 23,43,96</t>
         </is>
       </c>
       <c r="B106" t="n">
         <v>250</v>
       </c>
       <c r="C106" t="n">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="D106" t="n">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E106" t="n">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F106" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G106" t="n">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>BR 22,42,86</t>
+          <t>EX 21,31,97</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>250</v>
       </c>
       <c r="C107" t="n">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="D107" t="n">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="E107" t="n">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F107" t="n">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G107" t="n">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>BX 21,41,84</t>
+          <t>EY 22,32,98</t>
         </is>
       </c>
       <c r="B108" t="n">
         <v>250</v>
       </c>
       <c r="C108" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D108" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E108" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F108" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G108" t="n">
         <v>102</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>78</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>BY 22,42,85</t>
+          <t>EZ 23,33,99</t>
         </is>
       </c>
       <c r="B109" t="n">
         <v>250</v>
       </c>
       <c r="C109" t="n">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D109" t="n">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E109" t="n">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F109" t="n">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G109" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>69</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>CC 24,34,63</t>
+          <t>FY 12,22,32,42</t>
         </is>
       </c>
       <c r="B110" t="n">
         <v>250</v>
       </c>
       <c r="C110" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D110" t="n">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E110" t="n">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F110" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G110" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>CQ 21,31,88</t>
+          <t>FZ 13,23,33,43</t>
         </is>
       </c>
       <c r="B111" t="n">
         <v>250</v>
       </c>
       <c r="C111" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D111" t="n">
         <v>177</v>
       </c>
       <c r="E111" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F111" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G111" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>CR 22,32,89</t>
+          <t>HQ 11,21,31,41</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>250</v>
       </c>
       <c r="C112" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D112" t="n">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E112" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F112" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G112" t="n">
         <v>99</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>CY 22,32,88</t>
+          <t>S1 11,31</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C113" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="E113" t="n">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="F113" t="n">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="G113" t="n">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>CZ 23,33,89</t>
+          <t>S2 11,41</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C114" t="n">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="E114" t="n">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="F114" t="n">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="G114" t="n">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>DN 24,44,95</t>
+          <t>S3 12,32</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C115" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>180</v>
+        <v>81</v>
       </c>
       <c r="E115" t="n">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="F115" t="n">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="G115" t="n">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>DX 21,41,94</t>
+          <t>S4 12,42</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C116" t="n">
-        <v>208</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>178</v>
+        <v>92</v>
       </c>
       <c r="E116" t="n">
-        <v>148</v>
+        <v>78</v>
       </c>
       <c r="F116" t="n">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="G116" t="n">
-        <v>98</v>
+        <v>54</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>DY 22,42,95</t>
+          <t>S5 13,33</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C117" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="E117" t="n">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="F117" t="n">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="G117" t="n">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>34</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>EN 24,34,98</t>
+          <t>S6 13,43</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="C118" t="n">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="E118" t="n">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="F118" t="n">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="G118" t="n">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2023</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>EX 21,31,97</t>
+          <t>AX 11,21,31,41</t>
         </is>
       </c>
       <c r="B119" t="n">
         <v>250</v>
       </c>
       <c r="C119" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D119" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E119" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F119" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G119" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>EY 22,32,98</t>
+          <t>AY 12,22,32,42</t>
         </is>
       </c>
       <c r="B120" t="n">
         <v>250</v>
       </c>
       <c r="C120" t="n">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D120" t="n">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E120" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F120" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G120" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>83</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>November 2025</t>
+          <t>November 2024</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
+          <t>AZ 13,23,33,43</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>250</v>
+      </c>
+      <c r="C121" t="n">
+        <v>212</v>
+      </c>
+      <c r="D121" t="n">
+        <v>184</v>
+      </c>
+      <c r="E121" t="n">
+        <v>156</v>
+      </c>
+      <c r="F121" t="n">
+        <v>131</v>
+      </c>
+      <c r="G121" t="n">
+        <v>107</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>BQ 21,41,85</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>250</v>
+      </c>
+      <c r="C122" t="n">
+        <v>216</v>
+      </c>
+      <c r="D122" t="n">
+        <v>186</v>
+      </c>
+      <c r="E122" t="n">
+        <v>156</v>
+      </c>
+      <c r="F122" t="n">
+        <v>131</v>
+      </c>
+      <c r="G122" t="n">
+        <v>107</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>BR 22,42,86</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>250</v>
+      </c>
+      <c r="C123" t="n">
+        <v>222</v>
+      </c>
+      <c r="D123" t="n">
+        <v>195</v>
+      </c>
+      <c r="E123" t="n">
+        <v>163</v>
+      </c>
+      <c r="F123" t="n">
+        <v>138</v>
+      </c>
+      <c r="G123" t="n">
+        <v>113</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42,85</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>250</v>
+      </c>
+      <c r="C124" t="n">
+        <v>216</v>
+      </c>
+      <c r="D124" t="n">
+        <v>186</v>
+      </c>
+      <c r="E124" t="n">
+        <v>156</v>
+      </c>
+      <c r="F124" t="n">
+        <v>131</v>
+      </c>
+      <c r="G124" t="n">
+        <v>107</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>BZ 23,43,86</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>250</v>
+      </c>
+      <c r="C125" t="n">
+        <v>222</v>
+      </c>
+      <c r="D125" t="n">
+        <v>195</v>
+      </c>
+      <c r="E125" t="n">
+        <v>163</v>
+      </c>
+      <c r="F125" t="n">
+        <v>138</v>
+      </c>
+      <c r="G125" t="n">
+        <v>113</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>CQ 21,31,88</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>250</v>
+      </c>
+      <c r="C126" t="n">
+        <v>219</v>
+      </c>
+      <c r="D126" t="n">
+        <v>188</v>
+      </c>
+      <c r="E126" t="n">
+        <v>153</v>
+      </c>
+      <c r="F126" t="n">
+        <v>127</v>
+      </c>
+      <c r="G126" t="n">
+        <v>102</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>CR 22,32,89</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>250</v>
+      </c>
+      <c r="C127" t="n">
+        <v>219</v>
+      </c>
+      <c r="D127" t="n">
+        <v>188</v>
+      </c>
+      <c r="E127" t="n">
+        <v>153</v>
+      </c>
+      <c r="F127" t="n">
+        <v>127</v>
+      </c>
+      <c r="G127" t="n">
+        <v>102</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>CY 22,32,88</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>250</v>
+      </c>
+      <c r="C128" t="n">
+        <v>219</v>
+      </c>
+      <c r="D128" t="n">
+        <v>188</v>
+      </c>
+      <c r="E128" t="n">
+        <v>153</v>
+      </c>
+      <c r="F128" t="n">
+        <v>127</v>
+      </c>
+      <c r="G128" t="n">
+        <v>102</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>DX 21,41,94</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>250</v>
+      </c>
+      <c r="C129" t="n">
+        <v>214</v>
+      </c>
+      <c r="D129" t="n">
+        <v>187</v>
+      </c>
+      <c r="E129" t="n">
+        <v>160</v>
+      </c>
+      <c r="F129" t="n">
+        <v>136</v>
+      </c>
+      <c r="G129" t="n">
+        <v>113</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>DY 22,42,95</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>250</v>
+      </c>
+      <c r="C130" t="n">
+        <v>220</v>
+      </c>
+      <c r="D130" t="n">
+        <v>191</v>
+      </c>
+      <c r="E130" t="n">
+        <v>162</v>
+      </c>
+      <c r="F130" t="n">
+        <v>138</v>
+      </c>
+      <c r="G130" t="n">
+        <v>115</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>DZ 23,43,96</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>250</v>
+      </c>
+      <c r="C131" t="n">
+        <v>214</v>
+      </c>
+      <c r="D131" t="n">
+        <v>187</v>
+      </c>
+      <c r="E131" t="n">
+        <v>160</v>
+      </c>
+      <c r="F131" t="n">
+        <v>136</v>
+      </c>
+      <c r="G131" t="n">
+        <v>113</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>EX 21,31,97</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>250</v>
+      </c>
+      <c r="C132" t="n">
+        <v>210</v>
+      </c>
+      <c r="D132" t="n">
+        <v>182</v>
+      </c>
+      <c r="E132" t="n">
+        <v>154</v>
+      </c>
+      <c r="F132" t="n">
+        <v>129</v>
+      </c>
+      <c r="G132" t="n">
+        <v>104</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>EY 22,32,98</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>250</v>
+      </c>
+      <c r="C133" t="n">
+        <v>214</v>
+      </c>
+      <c r="D133" t="n">
+        <v>186</v>
+      </c>
+      <c r="E133" t="n">
+        <v>158</v>
+      </c>
+      <c r="F133" t="n">
+        <v>134</v>
+      </c>
+      <c r="G133" t="n">
+        <v>110</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>FY 12,22,32,42</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>250</v>
+      </c>
+      <c r="C134" t="n">
+        <v>212</v>
+      </c>
+      <c r="D134" t="n">
+        <v>184</v>
+      </c>
+      <c r="E134" t="n">
+        <v>156</v>
+      </c>
+      <c r="F134" t="n">
+        <v>131</v>
+      </c>
+      <c r="G134" t="n">
+        <v>107</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>FZ 13,23,33,43</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>250</v>
+      </c>
+      <c r="C135" t="n">
+        <v>212</v>
+      </c>
+      <c r="D135" t="n">
+        <v>184</v>
+      </c>
+      <c r="E135" t="n">
+        <v>156</v>
+      </c>
+      <c r="F135" t="n">
+        <v>131</v>
+      </c>
+      <c r="G135" t="n">
+        <v>107</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>HQ 11,21,31,41</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>250</v>
+      </c>
+      <c r="C136" t="n">
+        <v>212</v>
+      </c>
+      <c r="D136" t="n">
+        <v>184</v>
+      </c>
+      <c r="E136" t="n">
+        <v>156</v>
+      </c>
+      <c r="F136" t="n">
+        <v>131</v>
+      </c>
+      <c r="G136" t="n">
+        <v>107</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>HR 12,22,32,42</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>250</v>
+      </c>
+      <c r="C137" t="n">
+        <v>212</v>
+      </c>
+      <c r="D137" t="n">
+        <v>184</v>
+      </c>
+      <c r="E137" t="n">
+        <v>156</v>
+      </c>
+      <c r="F137" t="n">
+        <v>131</v>
+      </c>
+      <c r="G137" t="n">
+        <v>107</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>S1 11,31</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>125</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>74</v>
+      </c>
+      <c r="E138" t="n">
+        <v>57</v>
+      </c>
+      <c r="F138" t="n">
+        <v>47</v>
+      </c>
+      <c r="G138" t="n">
+        <v>37</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>S2 11,41</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>125</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>90</v>
+      </c>
+      <c r="E139" t="n">
+        <v>76</v>
+      </c>
+      <c r="F139" t="n">
+        <v>63</v>
+      </c>
+      <c r="G139" t="n">
+        <v>51</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>S3 12,32</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>125</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>74</v>
+      </c>
+      <c r="E140" t="n">
+        <v>57</v>
+      </c>
+      <c r="F140" t="n">
+        <v>47</v>
+      </c>
+      <c r="G140" t="n">
+        <v>37</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>S4 12,42</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>125</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>90</v>
+      </c>
+      <c r="E141" t="n">
+        <v>76</v>
+      </c>
+      <c r="F141" t="n">
+        <v>63</v>
+      </c>
+      <c r="G141" t="n">
+        <v>51</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>S5 13,33</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>125</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>74</v>
+      </c>
+      <c r="E142" t="n">
+        <v>57</v>
+      </c>
+      <c r="F142" t="n">
+        <v>47</v>
+      </c>
+      <c r="G142" t="n">
+        <v>37</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>S6 13,43</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>125</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>90</v>
+      </c>
+      <c r="E143" t="n">
+        <v>76</v>
+      </c>
+      <c r="F143" t="n">
+        <v>63</v>
+      </c>
+      <c r="G143" t="n">
+        <v>51</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>November 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>AC 14,24,34,44</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>250</v>
+      </c>
+      <c r="C144" t="n">
+        <v>210</v>
+      </c>
+      <c r="D144" t="n">
+        <v>180</v>
+      </c>
+      <c r="E144" t="n">
+        <v>150</v>
+      </c>
+      <c r="F144" t="n">
+        <v>126</v>
+      </c>
+      <c r="G144" t="n">
+        <v>102</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>AX 11,21,31,41</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>250</v>
+      </c>
+      <c r="C145" t="n">
+        <v>209</v>
+      </c>
+      <c r="D145" t="n">
+        <v>178</v>
+      </c>
+      <c r="E145" t="n">
+        <v>147</v>
+      </c>
+      <c r="F145" t="n">
+        <v>123</v>
+      </c>
+      <c r="G145" t="n">
+        <v>99</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>AY 12,22,32,42</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>250</v>
+      </c>
+      <c r="C146" t="n">
+        <v>203</v>
+      </c>
+      <c r="D146" t="n">
+        <v>175</v>
+      </c>
+      <c r="E146" t="n">
+        <v>147</v>
+      </c>
+      <c r="F146" t="n">
+        <v>123</v>
+      </c>
+      <c r="G146" t="n">
+        <v>99</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>AZ 13,23,33,43</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>250</v>
+      </c>
+      <c r="C147" t="n">
+        <v>209</v>
+      </c>
+      <c r="D147" t="n">
+        <v>178</v>
+      </c>
+      <c r="E147" t="n">
+        <v>147</v>
+      </c>
+      <c r="F147" t="n">
+        <v>123</v>
+      </c>
+      <c r="G147" t="n">
+        <v>99</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>BC 24,44,62</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>250</v>
+      </c>
+      <c r="C148" t="n">
+        <v>225</v>
+      </c>
+      <c r="D148" t="n">
+        <v>200</v>
+      </c>
+      <c r="E148" t="n">
+        <v>169</v>
+      </c>
+      <c r="F148" t="n">
+        <v>142</v>
+      </c>
+      <c r="G148" t="n">
+        <v>115</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>BQ 21,41,85</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>250</v>
+      </c>
+      <c r="C149" t="n">
+        <v>213</v>
+      </c>
+      <c r="D149" t="n">
+        <v>183</v>
+      </c>
+      <c r="E149" t="n">
+        <v>153</v>
+      </c>
+      <c r="F149" t="n">
+        <v>127</v>
+      </c>
+      <c r="G149" t="n">
+        <v>102</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>BR 22,42,86</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>250</v>
+      </c>
+      <c r="C150" t="n">
+        <v>213</v>
+      </c>
+      <c r="D150" t="n">
+        <v>186</v>
+      </c>
+      <c r="E150" t="n">
+        <v>159</v>
+      </c>
+      <c r="F150" t="n">
+        <v>133</v>
+      </c>
+      <c r="G150" t="n">
+        <v>107</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>BX 21,41,84</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>250</v>
+      </c>
+      <c r="C151" t="n">
+        <v>213</v>
+      </c>
+      <c r="D151" t="n">
+        <v>183</v>
+      </c>
+      <c r="E151" t="n">
+        <v>153</v>
+      </c>
+      <c r="F151" t="n">
+        <v>127</v>
+      </c>
+      <c r="G151" t="n">
+        <v>102</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>BY 22,42,85</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>250</v>
+      </c>
+      <c r="C152" t="n">
+        <v>212</v>
+      </c>
+      <c r="D152" t="n">
+        <v>184</v>
+      </c>
+      <c r="E152" t="n">
+        <v>156</v>
+      </c>
+      <c r="F152" t="n">
+        <v>131</v>
+      </c>
+      <c r="G152" t="n">
+        <v>106</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>CC 24,34,63</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>250</v>
+      </c>
+      <c r="C153" t="n">
+        <v>222</v>
+      </c>
+      <c r="D153" t="n">
+        <v>195</v>
+      </c>
+      <c r="E153" t="n">
+        <v>163</v>
+      </c>
+      <c r="F153" t="n">
+        <v>137</v>
+      </c>
+      <c r="G153" t="n">
+        <v>111</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>CQ 21,31,88</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>250</v>
+      </c>
+      <c r="C154" t="n">
+        <v>209</v>
+      </c>
+      <c r="D154" t="n">
+        <v>177</v>
+      </c>
+      <c r="E154" t="n">
+        <v>145</v>
+      </c>
+      <c r="F154" t="n">
+        <v>120</v>
+      </c>
+      <c r="G154" t="n">
+        <v>95</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>CR 22,32,89</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>250</v>
+      </c>
+      <c r="C155" t="n">
+        <v>215</v>
+      </c>
+      <c r="D155" t="n">
+        <v>183</v>
+      </c>
+      <c r="E155" t="n">
+        <v>151</v>
+      </c>
+      <c r="F155" t="n">
+        <v>125</v>
+      </c>
+      <c r="G155" t="n">
+        <v>99</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>CY 22,32,88</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>250</v>
+      </c>
+      <c r="C156" t="n">
+        <v>209</v>
+      </c>
+      <c r="D156" t="n">
+        <v>177</v>
+      </c>
+      <c r="E156" t="n">
+        <v>145</v>
+      </c>
+      <c r="F156" t="n">
+        <v>120</v>
+      </c>
+      <c r="G156" t="n">
+        <v>95</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>CZ 23,33,89</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>250</v>
+      </c>
+      <c r="C157" t="n">
+        <v>215</v>
+      </c>
+      <c r="D157" t="n">
+        <v>183</v>
+      </c>
+      <c r="E157" t="n">
+        <v>151</v>
+      </c>
+      <c r="F157" t="n">
+        <v>125</v>
+      </c>
+      <c r="G157" t="n">
+        <v>99</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>DN 24,44,95</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>250</v>
+      </c>
+      <c r="C158" t="n">
+        <v>209</v>
+      </c>
+      <c r="D158" t="n">
+        <v>180</v>
+      </c>
+      <c r="E158" t="n">
+        <v>151</v>
+      </c>
+      <c r="F158" t="n">
+        <v>126</v>
+      </c>
+      <c r="G158" t="n">
+        <v>102</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>DX 21,41,94</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>250</v>
+      </c>
+      <c r="C159" t="n">
+        <v>208</v>
+      </c>
+      <c r="D159" t="n">
+        <v>178</v>
+      </c>
+      <c r="E159" t="n">
+        <v>148</v>
+      </c>
+      <c r="F159" t="n">
+        <v>123</v>
+      </c>
+      <c r="G159" t="n">
+        <v>98</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>DY 22,42,95</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>250</v>
+      </c>
+      <c r="C160" t="n">
+        <v>207</v>
+      </c>
+      <c r="D160" t="n">
+        <v>179</v>
+      </c>
+      <c r="E160" t="n">
+        <v>151</v>
+      </c>
+      <c r="F160" t="n">
+        <v>126</v>
+      </c>
+      <c r="G160" t="n">
+        <v>102</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>EN 24,34,98</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>250</v>
+      </c>
+      <c r="C161" t="n">
+        <v>209</v>
+      </c>
+      <c r="D161" t="n">
+        <v>181</v>
+      </c>
+      <c r="E161" t="n">
+        <v>153</v>
+      </c>
+      <c r="F161" t="n">
+        <v>128</v>
+      </c>
+      <c r="G161" t="n">
+        <v>104</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>EX 21,31,97</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>250</v>
+      </c>
+      <c r="C162" t="n">
+        <v>209</v>
+      </c>
+      <c r="D162" t="n">
+        <v>181</v>
+      </c>
+      <c r="E162" t="n">
+        <v>153</v>
+      </c>
+      <c r="F162" t="n">
+        <v>128</v>
+      </c>
+      <c r="G162" t="n">
+        <v>104</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>EY 22,32,98</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>250</v>
+      </c>
+      <c r="C163" t="n">
+        <v>209</v>
+      </c>
+      <c r="D163" t="n">
+        <v>181</v>
+      </c>
+      <c r="E163" t="n">
+        <v>153</v>
+      </c>
+      <c r="F163" t="n">
+        <v>128</v>
+      </c>
+      <c r="G163" t="n">
+        <v>104</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
           <t>EZ 23,33,99</t>
         </is>
       </c>
-      <c r="B121" t="n">
-        <v>250</v>
-      </c>
-      <c r="C121" t="n">
+      <c r="B164" t="n">
+        <v>250</v>
+      </c>
+      <c r="C164" t="n">
         <v>209</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D164" t="n">
         <v>181</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E164" t="n">
         <v>153</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F164" t="n">
         <v>128</v>
       </c>
-      <c r="G121" t="n">
+      <c r="G164" t="n">
         <v>104</v>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="I121" t="inlineStr">
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>S1 11,31</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>125</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>74</v>
+      </c>
+      <c r="E165" t="n">
+        <v>56</v>
+      </c>
+      <c r="F165" t="n">
+        <v>46</v>
+      </c>
+      <c r="G165" t="n">
+        <v>37</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>S2 11,41</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>125</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>87</v>
+      </c>
+      <c r="E166" t="n">
+        <v>70</v>
+      </c>
+      <c r="F166" t="n">
+        <v>58</v>
+      </c>
+      <c r="G166" t="n">
+        <v>46</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>S3 12,32</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>125</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>70</v>
+      </c>
+      <c r="E167" t="n">
+        <v>53</v>
+      </c>
+      <c r="F167" t="n">
+        <v>43</v>
+      </c>
+      <c r="G167" t="n">
+        <v>34</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>S4 12,42</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>125</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>84</v>
+      </c>
+      <c r="E168" t="n">
+        <v>70</v>
+      </c>
+      <c r="F168" t="n">
+        <v>58</v>
+      </c>
+      <c r="G168" t="n">
+        <v>46</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>S5 13,33</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>125</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>74</v>
+      </c>
+      <c r="E169" t="n">
+        <v>56</v>
+      </c>
+      <c r="F169" t="n">
+        <v>46</v>
+      </c>
+      <c r="G169" t="n">
+        <v>37</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>S6 13,43</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>125</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>87</v>
+      </c>
+      <c r="E170" t="n">
+        <v>70</v>
+      </c>
+      <c r="F170" t="n">
+        <v>58</v>
+      </c>
+      <c r="G170" t="n">
+        <v>46</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>S7 14,34</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>125</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>74</v>
+      </c>
+      <c r="E171" t="n">
+        <v>56</v>
+      </c>
+      <c r="F171" t="n">
+        <v>46</v>
+      </c>
+      <c r="G171" t="n">
+        <v>37</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>November 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>S8 14,44</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>125</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>89</v>
+      </c>
+      <c r="E172" t="n">
+        <v>73</v>
+      </c>
+      <c r="F172" t="n">
+        <v>61</v>
+      </c>
+      <c r="G172" t="n">
+        <v>49</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>November 2025</t>
         </is>
